--- a/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(画面)_WA10204_顧客選択.xlsx
+++ b/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(画面)_WA10204_顧客選択.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828D9558-029E-45C8-98BA-2F3BBB8369D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9CEC10-4DA0-4B62-94D3-CBEC5BBBF495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="-120" windowWidth="27885" windowHeight="16440" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="11" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="179">
   <si>
     <t>PJ名</t>
   </si>
@@ -746,12 +746,6 @@
       <t>カンリ</t>
     </rPh>
     <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>プロジェクト種別</t>
-  </si>
-  <si>
-    <t>売上高</t>
   </si>
   <si>
     <t>project_name</t>
@@ -1424,7 +1418,37 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>第１．０版</t>
+    <t>顧客名</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>業種コード</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>1.1版</t>
+    <rPh sb="3" eb="4">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>変更</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>2. WA1020401</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>ドメイン情報をドメイン定義書に合わせて修正</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>第１．１版</t>
     <rPh sb="0" eb="1">
       <t>ダイ</t>
     </rPh>
@@ -2081,7 +2105,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="289">
+  <cellXfs count="290">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2359,6 +2383,162 @@
     <xf numFmtId="31" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2401,160 +2581,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
@@ -2584,18 +2620,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2648,7 +2672,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2656,14 +2680,188 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2673,21 +2871,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2716,170 +2899,14 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -4093,7 +4120,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="J23" s="14" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L23" s="18"/>
     </row>
@@ -4109,7 +4136,7 @@
       <c r="H25" s="5"/>
       <c r="I25" s="110">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
-        <v>44687</v>
+        <v>44907</v>
       </c>
       <c r="J25" s="110"/>
       <c r="K25" s="110"/>
@@ -4737,57 +4764,57 @@
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="162" t="s">
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="129" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="164"/>
-      <c r="O1" s="114" t="s">
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="166" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="115"/>
-      <c r="Q1" s="115"/>
-      <c r="R1" s="116"/>
-      <c r="S1" s="168" t="s">
-        <v>121</v>
-      </c>
-      <c r="T1" s="169"/>
-      <c r="U1" s="169"/>
-      <c r="V1" s="169"/>
-      <c r="W1" s="169"/>
-      <c r="X1" s="169"/>
-      <c r="Y1" s="169"/>
-      <c r="Z1" s="170"/>
-      <c r="AA1" s="111" t="s">
+      <c r="P1" s="167"/>
+      <c r="Q1" s="167"/>
+      <c r="R1" s="168"/>
+      <c r="S1" s="141" t="s">
+        <v>119</v>
+      </c>
+      <c r="T1" s="142"/>
+      <c r="U1" s="142"/>
+      <c r="V1" s="142"/>
+      <c r="W1" s="142"/>
+      <c r="X1" s="142"/>
+      <c r="Y1" s="142"/>
+      <c r="Z1" s="143"/>
+      <c r="AA1" s="163" t="s">
         <v>35</v>
       </c>
-      <c r="AB1" s="113"/>
-      <c r="AC1" s="150" t="str">
+      <c r="AB1" s="165"/>
+      <c r="AC1" s="111" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="151"/>
-      <c r="AE1" s="151"/>
-      <c r="AF1" s="152"/>
-      <c r="AG1" s="156">
+      <c r="AD1" s="112"/>
+      <c r="AE1" s="112"/>
+      <c r="AF1" s="113"/>
+      <c r="AG1" s="117">
         <f>IF(D8="","",D8)</f>
         <v>44687</v>
       </c>
-      <c r="AH1" s="157"/>
-      <c r="AI1" s="158"/>
+      <c r="AH1" s="118"/>
+      <c r="AI1" s="119"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
@@ -4795,53 +4822,53 @@
       <c r="AN1" s="10"/>
     </row>
     <row r="2" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="163" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="162" t="s">
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="129" t="s">
         <v>98</v>
       </c>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
-      <c r="L2" s="163"/>
-      <c r="M2" s="163"/>
-      <c r="N2" s="164"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="118"/>
-      <c r="Q2" s="118"/>
-      <c r="R2" s="119"/>
-      <c r="S2" s="171"/>
-      <c r="T2" s="172"/>
-      <c r="U2" s="172"/>
-      <c r="V2" s="172"/>
-      <c r="W2" s="172"/>
-      <c r="X2" s="172"/>
-      <c r="Y2" s="172"/>
-      <c r="Z2" s="173"/>
-      <c r="AA2" s="111" t="s">
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="131"/>
+      <c r="O2" s="169"/>
+      <c r="P2" s="170"/>
+      <c r="Q2" s="170"/>
+      <c r="R2" s="171"/>
+      <c r="S2" s="144"/>
+      <c r="T2" s="145"/>
+      <c r="U2" s="145"/>
+      <c r="V2" s="145"/>
+      <c r="W2" s="145"/>
+      <c r="X2" s="145"/>
+      <c r="Y2" s="145"/>
+      <c r="Z2" s="146"/>
+      <c r="AA2" s="163" t="s">
         <v>36</v>
       </c>
-      <c r="AB2" s="113"/>
-      <c r="AC2" s="159" t="str">
+      <c r="AB2" s="165"/>
+      <c r="AC2" s="120" t="str">
         <f ca="1">IF(COUNTA(AF9:AF32)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF32)+8)),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="160"/>
-      <c r="AE2" s="160"/>
-      <c r="AF2" s="161"/>
-      <c r="AG2" s="156" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="121"/>
+      <c r="AE2" s="121"/>
+      <c r="AF2" s="122"/>
+      <c r="AG2" s="117">
         <f>IF(D9="","",D9)</f>
-        <v/>
-      </c>
-      <c r="AH2" s="157"/>
-      <c r="AI2" s="158"/>
+        <v>44907</v>
+      </c>
+      <c r="AH2" s="118"/>
+      <c r="AI2" s="119"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
@@ -4849,45 +4876,45 @@
       <c r="AN2" s="9"/>
     </row>
     <row r="3" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="163" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="162" t="s">
+      <c r="B3" s="164"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="129" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="163"/>
-      <c r="M3" s="163"/>
-      <c r="N3" s="164"/>
-      <c r="O3" s="120"/>
-      <c r="P3" s="121"/>
-      <c r="Q3" s="121"/>
-      <c r="R3" s="122"/>
-      <c r="S3" s="174"/>
-      <c r="T3" s="175"/>
-      <c r="U3" s="175"/>
-      <c r="V3" s="175"/>
-      <c r="W3" s="175"/>
-      <c r="X3" s="175"/>
-      <c r="Y3" s="175"/>
-      <c r="Z3" s="176"/>
-      <c r="AA3" s="123"/>
-      <c r="AB3" s="124"/>
-      <c r="AC3" s="150"/>
-      <c r="AD3" s="151"/>
-      <c r="AE3" s="151"/>
-      <c r="AF3" s="152"/>
-      <c r="AG3" s="156"/>
-      <c r="AH3" s="157"/>
-      <c r="AI3" s="158"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="130"/>
+      <c r="N3" s="131"/>
+      <c r="O3" s="172"/>
+      <c r="P3" s="173"/>
+      <c r="Q3" s="173"/>
+      <c r="R3" s="174"/>
+      <c r="S3" s="147"/>
+      <c r="T3" s="148"/>
+      <c r="U3" s="148"/>
+      <c r="V3" s="148"/>
+      <c r="W3" s="148"/>
+      <c r="X3" s="148"/>
+      <c r="Y3" s="148"/>
+      <c r="Z3" s="149"/>
+      <c r="AA3" s="175"/>
+      <c r="AB3" s="176"/>
+      <c r="AC3" s="111"/>
+      <c r="AD3" s="112"/>
+      <c r="AE3" s="112"/>
+      <c r="AF3" s="113"/>
+      <c r="AG3" s="117"/>
+      <c r="AH3" s="118"/>
+      <c r="AI3" s="119"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
@@ -5026,991 +5053,1005 @@
       <c r="A7" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="139" t="s">
+      <c r="B7" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="140"/>
-      <c r="D7" s="139" t="s">
+      <c r="C7" s="128"/>
+      <c r="D7" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="141"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="139" t="s">
+      <c r="E7" s="127"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="141"/>
-      <c r="I7" s="140"/>
-      <c r="J7" s="139" t="s">
+      <c r="H7" s="127"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="126" t="s">
         <v>81</v>
       </c>
-      <c r="K7" s="141"/>
-      <c r="L7" s="141"/>
-      <c r="M7" s="141"/>
-      <c r="N7" s="141"/>
-      <c r="O7" s="141"/>
-      <c r="P7" s="140"/>
-      <c r="Q7" s="139" t="s">
+      <c r="K7" s="127"/>
+      <c r="L7" s="127"/>
+      <c r="M7" s="127"/>
+      <c r="N7" s="127"/>
+      <c r="O7" s="127"/>
+      <c r="P7" s="128"/>
+      <c r="Q7" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="141"/>
-      <c r="S7" s="141"/>
-      <c r="T7" s="141"/>
-      <c r="U7" s="141"/>
-      <c r="V7" s="141"/>
-      <c r="W7" s="141"/>
-      <c r="X7" s="141"/>
-      <c r="Y7" s="141"/>
-      <c r="Z7" s="141"/>
-      <c r="AA7" s="141"/>
-      <c r="AB7" s="141"/>
-      <c r="AC7" s="141"/>
-      <c r="AD7" s="141"/>
-      <c r="AE7" s="140"/>
-      <c r="AF7" s="139" t="s">
+      <c r="R7" s="127"/>
+      <c r="S7" s="127"/>
+      <c r="T7" s="127"/>
+      <c r="U7" s="127"/>
+      <c r="V7" s="127"/>
+      <c r="W7" s="127"/>
+      <c r="X7" s="127"/>
+      <c r="Y7" s="127"/>
+      <c r="Z7" s="127"/>
+      <c r="AA7" s="127"/>
+      <c r="AB7" s="127"/>
+      <c r="AC7" s="127"/>
+      <c r="AD7" s="127"/>
+      <c r="AE7" s="128"/>
+      <c r="AF7" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="141"/>
-      <c r="AH7" s="141"/>
-      <c r="AI7" s="140"/>
-    </row>
-    <row r="8" spans="1:40" s="38" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="AG7" s="127"/>
+      <c r="AH7" s="127"/>
+      <c r="AI7" s="128"/>
+    </row>
+    <row r="8" spans="1:40" s="38" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="39">
         <v>1</v>
       </c>
-      <c r="B8" s="142">
+      <c r="B8" s="155">
         <v>1</v>
       </c>
-      <c r="C8" s="143"/>
-      <c r="D8" s="144">
+      <c r="C8" s="156"/>
+      <c r="D8" s="157">
         <v>44687</v>
       </c>
-      <c r="E8" s="145"/>
-      <c r="F8" s="146"/>
-      <c r="G8" s="147" t="s">
+      <c r="E8" s="158"/>
+      <c r="F8" s="159"/>
+      <c r="G8" s="160" t="s">
         <v>93</v>
       </c>
-      <c r="H8" s="148"/>
-      <c r="I8" s="149"/>
-      <c r="J8" s="165" t="s">
+      <c r="H8" s="161"/>
+      <c r="I8" s="162"/>
+      <c r="J8" s="138" t="s">
         <v>94</v>
       </c>
-      <c r="K8" s="166"/>
-      <c r="L8" s="166"/>
-      <c r="M8" s="166"/>
-      <c r="N8" s="166"/>
-      <c r="O8" s="166"/>
-      <c r="P8" s="167"/>
-      <c r="Q8" s="153" t="s">
+      <c r="K8" s="139"/>
+      <c r="L8" s="139"/>
+      <c r="M8" s="139"/>
+      <c r="N8" s="139"/>
+      <c r="O8" s="139"/>
+      <c r="P8" s="140"/>
+      <c r="Q8" s="114" t="s">
         <v>95</v>
       </c>
-      <c r="R8" s="154"/>
-      <c r="S8" s="154"/>
-      <c r="T8" s="154"/>
-      <c r="U8" s="154"/>
-      <c r="V8" s="154"/>
-      <c r="W8" s="154"/>
-      <c r="X8" s="154"/>
-      <c r="Y8" s="154"/>
-      <c r="Z8" s="154"/>
-      <c r="AA8" s="154"/>
-      <c r="AB8" s="154"/>
-      <c r="AC8" s="154"/>
-      <c r="AD8" s="154"/>
-      <c r="AE8" s="155"/>
-      <c r="AF8" s="165" t="s">
+      <c r="R8" s="115"/>
+      <c r="S8" s="115"/>
+      <c r="T8" s="115"/>
+      <c r="U8" s="115"/>
+      <c r="V8" s="115"/>
+      <c r="W8" s="115"/>
+      <c r="X8" s="115"/>
+      <c r="Y8" s="115"/>
+      <c r="Z8" s="115"/>
+      <c r="AA8" s="115"/>
+      <c r="AB8" s="115"/>
+      <c r="AC8" s="115"/>
+      <c r="AD8" s="115"/>
+      <c r="AE8" s="116"/>
+      <c r="AF8" s="138" t="s">
         <v>96</v>
       </c>
-      <c r="AG8" s="166"/>
-      <c r="AH8" s="166"/>
-      <c r="AI8" s="167"/>
-    </row>
-    <row r="9" spans="1:40" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="40"/>
-      <c r="B9" s="131"/>
-      <c r="C9" s="132"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="135"/>
-      <c r="G9" s="136"/>
-      <c r="H9" s="137"/>
-      <c r="I9" s="138"/>
-      <c r="J9" s="128"/>
-      <c r="K9" s="129"/>
-      <c r="L9" s="129"/>
-      <c r="M9" s="129"/>
-      <c r="N9" s="129"/>
-      <c r="O9" s="129"/>
-      <c r="P9" s="130"/>
-      <c r="Q9" s="125"/>
-      <c r="R9" s="126"/>
-      <c r="S9" s="126"/>
-      <c r="T9" s="126"/>
-      <c r="U9" s="126"/>
-      <c r="V9" s="126"/>
-      <c r="W9" s="126"/>
-      <c r="X9" s="126"/>
-      <c r="Y9" s="126"/>
-      <c r="Z9" s="126"/>
-      <c r="AA9" s="126"/>
-      <c r="AB9" s="126"/>
-      <c r="AC9" s="126"/>
-      <c r="AD9" s="126"/>
-      <c r="AE9" s="127"/>
-      <c r="AF9" s="128"/>
-      <c r="AG9" s="129"/>
-      <c r="AH9" s="129"/>
-      <c r="AI9" s="130"/>
+      <c r="AG8" s="139"/>
+      <c r="AH8" s="139"/>
+      <c r="AI8" s="140"/>
+    </row>
+    <row r="9" spans="1:40" s="38" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="40">
+        <v>2</v>
+      </c>
+      <c r="B9" s="150" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" s="151"/>
+      <c r="D9" s="152">
+        <v>44907</v>
+      </c>
+      <c r="E9" s="153"/>
+      <c r="F9" s="154"/>
+      <c r="G9" s="123" t="s">
+        <v>175</v>
+      </c>
+      <c r="H9" s="124"/>
+      <c r="I9" s="125"/>
+      <c r="J9" s="135" t="s">
+        <v>176</v>
+      </c>
+      <c r="K9" s="136"/>
+      <c r="L9" s="136"/>
+      <c r="M9" s="136"/>
+      <c r="N9" s="136"/>
+      <c r="O9" s="136"/>
+      <c r="P9" s="137"/>
+      <c r="Q9" s="132" t="s">
+        <v>177</v>
+      </c>
+      <c r="R9" s="133"/>
+      <c r="S9" s="133"/>
+      <c r="T9" s="133"/>
+      <c r="U9" s="133"/>
+      <c r="V9" s="133"/>
+      <c r="W9" s="133"/>
+      <c r="X9" s="133"/>
+      <c r="Y9" s="133"/>
+      <c r="Z9" s="133"/>
+      <c r="AA9" s="133"/>
+      <c r="AB9" s="133"/>
+      <c r="AC9" s="133"/>
+      <c r="AD9" s="133"/>
+      <c r="AE9" s="134"/>
+      <c r="AF9" s="138" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG9" s="139"/>
+      <c r="AH9" s="139"/>
+      <c r="AI9" s="140"/>
     </row>
     <row r="10" spans="1:40" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="40"/>
-      <c r="B10" s="131"/>
-      <c r="C10" s="132"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="134"/>
-      <c r="F10" s="135"/>
-      <c r="G10" s="136"/>
-      <c r="H10" s="137"/>
-      <c r="I10" s="138"/>
-      <c r="J10" s="128"/>
-      <c r="K10" s="129"/>
-      <c r="L10" s="129"/>
-      <c r="M10" s="129"/>
-      <c r="N10" s="129"/>
-      <c r="O10" s="129"/>
-      <c r="P10" s="130"/>
-      <c r="Q10" s="125"/>
-      <c r="R10" s="126"/>
-      <c r="S10" s="126"/>
-      <c r="T10" s="126"/>
-      <c r="U10" s="126"/>
-      <c r="V10" s="126"/>
-      <c r="W10" s="126"/>
-      <c r="X10" s="126"/>
-      <c r="Y10" s="126"/>
-      <c r="Z10" s="126"/>
-      <c r="AA10" s="126"/>
-      <c r="AB10" s="126"/>
-      <c r="AC10" s="126"/>
-      <c r="AD10" s="126"/>
-      <c r="AE10" s="127"/>
-      <c r="AF10" s="128"/>
-      <c r="AG10" s="129"/>
-      <c r="AH10" s="129"/>
-      <c r="AI10" s="130"/>
+      <c r="B10" s="150"/>
+      <c r="C10" s="151"/>
+      <c r="D10" s="152"/>
+      <c r="E10" s="153"/>
+      <c r="F10" s="154"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="135"/>
+      <c r="K10" s="136"/>
+      <c r="L10" s="136"/>
+      <c r="M10" s="136"/>
+      <c r="N10" s="136"/>
+      <c r="O10" s="136"/>
+      <c r="P10" s="137"/>
+      <c r="Q10" s="132"/>
+      <c r="R10" s="133"/>
+      <c r="S10" s="133"/>
+      <c r="T10" s="133"/>
+      <c r="U10" s="133"/>
+      <c r="V10" s="133"/>
+      <c r="W10" s="133"/>
+      <c r="X10" s="133"/>
+      <c r="Y10" s="133"/>
+      <c r="Z10" s="133"/>
+      <c r="AA10" s="133"/>
+      <c r="AB10" s="133"/>
+      <c r="AC10" s="133"/>
+      <c r="AD10" s="133"/>
+      <c r="AE10" s="134"/>
+      <c r="AF10" s="135"/>
+      <c r="AG10" s="136"/>
+      <c r="AH10" s="136"/>
+      <c r="AI10" s="137"/>
     </row>
     <row r="11" spans="1:40" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="40"/>
-      <c r="B11" s="131"/>
-      <c r="C11" s="132"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="134"/>
-      <c r="F11" s="135"/>
-      <c r="G11" s="136"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="138"/>
-      <c r="J11" s="128"/>
-      <c r="K11" s="129"/>
-      <c r="L11" s="129"/>
-      <c r="M11" s="129"/>
-      <c r="N11" s="129"/>
-      <c r="O11" s="129"/>
-      <c r="P11" s="130"/>
-      <c r="Q11" s="125"/>
-      <c r="R11" s="126"/>
-      <c r="S11" s="126"/>
-      <c r="T11" s="126"/>
-      <c r="U11" s="126"/>
-      <c r="V11" s="126"/>
-      <c r="W11" s="126"/>
-      <c r="X11" s="126"/>
-      <c r="Y11" s="126"/>
-      <c r="Z11" s="126"/>
-      <c r="AA11" s="126"/>
-      <c r="AB11" s="126"/>
-      <c r="AC11" s="126"/>
-      <c r="AD11" s="126"/>
-      <c r="AE11" s="127"/>
-      <c r="AF11" s="128"/>
-      <c r="AG11" s="129"/>
-      <c r="AH11" s="129"/>
-      <c r="AI11" s="130"/>
+      <c r="B11" s="150"/>
+      <c r="C11" s="151"/>
+      <c r="D11" s="152"/>
+      <c r="E11" s="153"/>
+      <c r="F11" s="154"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="124"/>
+      <c r="I11" s="125"/>
+      <c r="J11" s="135"/>
+      <c r="K11" s="136"/>
+      <c r="L11" s="136"/>
+      <c r="M11" s="136"/>
+      <c r="N11" s="136"/>
+      <c r="O11" s="136"/>
+      <c r="P11" s="137"/>
+      <c r="Q11" s="132"/>
+      <c r="R11" s="133"/>
+      <c r="S11" s="133"/>
+      <c r="T11" s="133"/>
+      <c r="U11" s="133"/>
+      <c r="V11" s="133"/>
+      <c r="W11" s="133"/>
+      <c r="X11" s="133"/>
+      <c r="Y11" s="133"/>
+      <c r="Z11" s="133"/>
+      <c r="AA11" s="133"/>
+      <c r="AB11" s="133"/>
+      <c r="AC11" s="133"/>
+      <c r="AD11" s="133"/>
+      <c r="AE11" s="134"/>
+      <c r="AF11" s="135"/>
+      <c r="AG11" s="136"/>
+      <c r="AH11" s="136"/>
+      <c r="AI11" s="137"/>
     </row>
     <row r="12" spans="1:40" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="40"/>
-      <c r="B12" s="131"/>
-      <c r="C12" s="132"/>
-      <c r="D12" s="133"/>
-      <c r="E12" s="134"/>
-      <c r="F12" s="135"/>
-      <c r="G12" s="136"/>
-      <c r="H12" s="137"/>
-      <c r="I12" s="138"/>
-      <c r="J12" s="128"/>
-      <c r="K12" s="129"/>
-      <c r="L12" s="129"/>
-      <c r="M12" s="129"/>
-      <c r="N12" s="129"/>
-      <c r="O12" s="129"/>
-      <c r="P12" s="130"/>
-      <c r="Q12" s="125"/>
-      <c r="R12" s="126"/>
-      <c r="S12" s="126"/>
-      <c r="T12" s="126"/>
-      <c r="U12" s="126"/>
-      <c r="V12" s="126"/>
-      <c r="W12" s="126"/>
-      <c r="X12" s="126"/>
-      <c r="Y12" s="126"/>
-      <c r="Z12" s="126"/>
-      <c r="AA12" s="126"/>
-      <c r="AB12" s="126"/>
-      <c r="AC12" s="126"/>
-      <c r="AD12" s="126"/>
-      <c r="AE12" s="127"/>
-      <c r="AF12" s="128"/>
-      <c r="AG12" s="129"/>
-      <c r="AH12" s="129"/>
-      <c r="AI12" s="130"/>
+      <c r="B12" s="150"/>
+      <c r="C12" s="151"/>
+      <c r="D12" s="152"/>
+      <c r="E12" s="153"/>
+      <c r="F12" s="154"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="125"/>
+      <c r="J12" s="135"/>
+      <c r="K12" s="136"/>
+      <c r="L12" s="136"/>
+      <c r="M12" s="136"/>
+      <c r="N12" s="136"/>
+      <c r="O12" s="136"/>
+      <c r="P12" s="137"/>
+      <c r="Q12" s="132"/>
+      <c r="R12" s="133"/>
+      <c r="S12" s="133"/>
+      <c r="T12" s="133"/>
+      <c r="U12" s="133"/>
+      <c r="V12" s="133"/>
+      <c r="W12" s="133"/>
+      <c r="X12" s="133"/>
+      <c r="Y12" s="133"/>
+      <c r="Z12" s="133"/>
+      <c r="AA12" s="133"/>
+      <c r="AB12" s="133"/>
+      <c r="AC12" s="133"/>
+      <c r="AD12" s="133"/>
+      <c r="AE12" s="134"/>
+      <c r="AF12" s="135"/>
+      <c r="AG12" s="136"/>
+      <c r="AH12" s="136"/>
+      <c r="AI12" s="137"/>
     </row>
     <row r="13" spans="1:40" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="40"/>
-      <c r="B13" s="131"/>
-      <c r="C13" s="132"/>
-      <c r="D13" s="133"/>
-      <c r="E13" s="134"/>
-      <c r="F13" s="135"/>
-      <c r="G13" s="136"/>
-      <c r="H13" s="137"/>
-      <c r="I13" s="138"/>
-      <c r="J13" s="128"/>
-      <c r="K13" s="129"/>
-      <c r="L13" s="129"/>
-      <c r="M13" s="129"/>
-      <c r="N13" s="129"/>
-      <c r="O13" s="129"/>
-      <c r="P13" s="130"/>
-      <c r="Q13" s="125"/>
-      <c r="R13" s="126"/>
-      <c r="S13" s="126"/>
-      <c r="T13" s="126"/>
-      <c r="U13" s="126"/>
-      <c r="V13" s="126"/>
-      <c r="W13" s="126"/>
-      <c r="X13" s="126"/>
-      <c r="Y13" s="126"/>
-      <c r="Z13" s="126"/>
-      <c r="AA13" s="126"/>
-      <c r="AB13" s="126"/>
-      <c r="AC13" s="126"/>
-      <c r="AD13" s="126"/>
-      <c r="AE13" s="127"/>
-      <c r="AF13" s="128"/>
-      <c r="AG13" s="129"/>
-      <c r="AH13" s="129"/>
-      <c r="AI13" s="130"/>
+      <c r="B13" s="150"/>
+      <c r="C13" s="151"/>
+      <c r="D13" s="152"/>
+      <c r="E13" s="153"/>
+      <c r="F13" s="154"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="125"/>
+      <c r="J13" s="135"/>
+      <c r="K13" s="136"/>
+      <c r="L13" s="136"/>
+      <c r="M13" s="136"/>
+      <c r="N13" s="136"/>
+      <c r="O13" s="136"/>
+      <c r="P13" s="137"/>
+      <c r="Q13" s="132"/>
+      <c r="R13" s="133"/>
+      <c r="S13" s="133"/>
+      <c r="T13" s="133"/>
+      <c r="U13" s="133"/>
+      <c r="V13" s="133"/>
+      <c r="W13" s="133"/>
+      <c r="X13" s="133"/>
+      <c r="Y13" s="133"/>
+      <c r="Z13" s="133"/>
+      <c r="AA13" s="133"/>
+      <c r="AB13" s="133"/>
+      <c r="AC13" s="133"/>
+      <c r="AD13" s="133"/>
+      <c r="AE13" s="134"/>
+      <c r="AF13" s="135"/>
+      <c r="AG13" s="136"/>
+      <c r="AH13" s="136"/>
+      <c r="AI13" s="137"/>
     </row>
     <row r="14" spans="1:40" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="40"/>
-      <c r="B14" s="131"/>
-      <c r="C14" s="132"/>
-      <c r="D14" s="133"/>
-      <c r="E14" s="134"/>
-      <c r="F14" s="135"/>
-      <c r="G14" s="136"/>
-      <c r="H14" s="137"/>
-      <c r="I14" s="138"/>
-      <c r="J14" s="128"/>
-      <c r="K14" s="129"/>
-      <c r="L14" s="129"/>
-      <c r="M14" s="129"/>
-      <c r="N14" s="129"/>
-      <c r="O14" s="129"/>
-      <c r="P14" s="130"/>
-      <c r="Q14" s="125"/>
-      <c r="R14" s="126"/>
-      <c r="S14" s="126"/>
-      <c r="T14" s="126"/>
-      <c r="U14" s="126"/>
-      <c r="V14" s="126"/>
-      <c r="W14" s="126"/>
-      <c r="X14" s="126"/>
-      <c r="Y14" s="126"/>
-      <c r="Z14" s="126"/>
-      <c r="AA14" s="126"/>
-      <c r="AB14" s="126"/>
-      <c r="AC14" s="126"/>
-      <c r="AD14" s="126"/>
-      <c r="AE14" s="127"/>
-      <c r="AF14" s="128"/>
-      <c r="AG14" s="129"/>
-      <c r="AH14" s="129"/>
-      <c r="AI14" s="130"/>
+      <c r="B14" s="150"/>
+      <c r="C14" s="151"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="153"/>
+      <c r="F14" s="154"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="124"/>
+      <c r="I14" s="125"/>
+      <c r="J14" s="135"/>
+      <c r="K14" s="136"/>
+      <c r="L14" s="136"/>
+      <c r="M14" s="136"/>
+      <c r="N14" s="136"/>
+      <c r="O14" s="136"/>
+      <c r="P14" s="137"/>
+      <c r="Q14" s="132"/>
+      <c r="R14" s="133"/>
+      <c r="S14" s="133"/>
+      <c r="T14" s="133"/>
+      <c r="U14" s="133"/>
+      <c r="V14" s="133"/>
+      <c r="W14" s="133"/>
+      <c r="X14" s="133"/>
+      <c r="Y14" s="133"/>
+      <c r="Z14" s="133"/>
+      <c r="AA14" s="133"/>
+      <c r="AB14" s="133"/>
+      <c r="AC14" s="133"/>
+      <c r="AD14" s="133"/>
+      <c r="AE14" s="134"/>
+      <c r="AF14" s="135"/>
+      <c r="AG14" s="136"/>
+      <c r="AH14" s="136"/>
+      <c r="AI14" s="137"/>
     </row>
     <row r="15" spans="1:40" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="40"/>
-      <c r="B15" s="131"/>
-      <c r="C15" s="132"/>
-      <c r="D15" s="133"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="135"/>
-      <c r="G15" s="136"/>
-      <c r="H15" s="137"/>
-      <c r="I15" s="138"/>
-      <c r="J15" s="128"/>
-      <c r="K15" s="129"/>
-      <c r="L15" s="129"/>
-      <c r="M15" s="129"/>
-      <c r="N15" s="129"/>
-      <c r="O15" s="129"/>
-      <c r="P15" s="130"/>
-      <c r="Q15" s="125"/>
-      <c r="R15" s="126"/>
-      <c r="S15" s="126"/>
-      <c r="T15" s="126"/>
-      <c r="U15" s="126"/>
-      <c r="V15" s="126"/>
-      <c r="W15" s="126"/>
-      <c r="X15" s="126"/>
-      <c r="Y15" s="126"/>
-      <c r="Z15" s="126"/>
-      <c r="AA15" s="126"/>
-      <c r="AB15" s="126"/>
-      <c r="AC15" s="126"/>
-      <c r="AD15" s="126"/>
-      <c r="AE15" s="127"/>
-      <c r="AF15" s="128"/>
-      <c r="AG15" s="129"/>
-      <c r="AH15" s="129"/>
-      <c r="AI15" s="130"/>
+      <c r="B15" s="150"/>
+      <c r="C15" s="151"/>
+      <c r="D15" s="152"/>
+      <c r="E15" s="153"/>
+      <c r="F15" s="154"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="124"/>
+      <c r="I15" s="125"/>
+      <c r="J15" s="135"/>
+      <c r="K15" s="136"/>
+      <c r="L15" s="136"/>
+      <c r="M15" s="136"/>
+      <c r="N15" s="136"/>
+      <c r="O15" s="136"/>
+      <c r="P15" s="137"/>
+      <c r="Q15" s="132"/>
+      <c r="R15" s="133"/>
+      <c r="S15" s="133"/>
+      <c r="T15" s="133"/>
+      <c r="U15" s="133"/>
+      <c r="V15" s="133"/>
+      <c r="W15" s="133"/>
+      <c r="X15" s="133"/>
+      <c r="Y15" s="133"/>
+      <c r="Z15" s="133"/>
+      <c r="AA15" s="133"/>
+      <c r="AB15" s="133"/>
+      <c r="AC15" s="133"/>
+      <c r="AD15" s="133"/>
+      <c r="AE15" s="134"/>
+      <c r="AF15" s="135"/>
+      <c r="AG15" s="136"/>
+      <c r="AH15" s="136"/>
+      <c r="AI15" s="137"/>
     </row>
     <row r="16" spans="1:40" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="40"/>
-      <c r="B16" s="131"/>
-      <c r="C16" s="132"/>
-      <c r="D16" s="133"/>
-      <c r="E16" s="134"/>
-      <c r="F16" s="135"/>
-      <c r="G16" s="136"/>
-      <c r="H16" s="137"/>
-      <c r="I16" s="138"/>
-      <c r="J16" s="128"/>
-      <c r="K16" s="129"/>
-      <c r="L16" s="129"/>
-      <c r="M16" s="129"/>
-      <c r="N16" s="129"/>
-      <c r="O16" s="129"/>
-      <c r="P16" s="130"/>
-      <c r="Q16" s="125"/>
-      <c r="R16" s="126"/>
-      <c r="S16" s="126"/>
-      <c r="T16" s="126"/>
-      <c r="U16" s="126"/>
-      <c r="V16" s="126"/>
-      <c r="W16" s="126"/>
-      <c r="X16" s="126"/>
-      <c r="Y16" s="126"/>
-      <c r="Z16" s="126"/>
-      <c r="AA16" s="126"/>
-      <c r="AB16" s="126"/>
-      <c r="AC16" s="126"/>
-      <c r="AD16" s="126"/>
-      <c r="AE16" s="127"/>
-      <c r="AF16" s="128"/>
-      <c r="AG16" s="129"/>
-      <c r="AH16" s="129"/>
-      <c r="AI16" s="130"/>
+      <c r="B16" s="150"/>
+      <c r="C16" s="151"/>
+      <c r="D16" s="152"/>
+      <c r="E16" s="153"/>
+      <c r="F16" s="154"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="124"/>
+      <c r="I16" s="125"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="136"/>
+      <c r="L16" s="136"/>
+      <c r="M16" s="136"/>
+      <c r="N16" s="136"/>
+      <c r="O16" s="136"/>
+      <c r="P16" s="137"/>
+      <c r="Q16" s="132"/>
+      <c r="R16" s="133"/>
+      <c r="S16" s="133"/>
+      <c r="T16" s="133"/>
+      <c r="U16" s="133"/>
+      <c r="V16" s="133"/>
+      <c r="W16" s="133"/>
+      <c r="X16" s="133"/>
+      <c r="Y16" s="133"/>
+      <c r="Z16" s="133"/>
+      <c r="AA16" s="133"/>
+      <c r="AB16" s="133"/>
+      <c r="AC16" s="133"/>
+      <c r="AD16" s="133"/>
+      <c r="AE16" s="134"/>
+      <c r="AF16" s="135"/>
+      <c r="AG16" s="136"/>
+      <c r="AH16" s="136"/>
+      <c r="AI16" s="137"/>
     </row>
     <row r="17" spans="1:35" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="40"/>
-      <c r="B17" s="131"/>
-      <c r="C17" s="132"/>
-      <c r="D17" s="133"/>
-      <c r="E17" s="134"/>
-      <c r="F17" s="135"/>
-      <c r="G17" s="136"/>
-      <c r="H17" s="137"/>
-      <c r="I17" s="138"/>
-      <c r="J17" s="128"/>
-      <c r="K17" s="129"/>
-      <c r="L17" s="129"/>
-      <c r="M17" s="129"/>
-      <c r="N17" s="129"/>
-      <c r="O17" s="129"/>
-      <c r="P17" s="130"/>
-      <c r="Q17" s="125"/>
-      <c r="R17" s="126"/>
-      <c r="S17" s="126"/>
-      <c r="T17" s="126"/>
-      <c r="U17" s="126"/>
-      <c r="V17" s="126"/>
-      <c r="W17" s="126"/>
-      <c r="X17" s="126"/>
-      <c r="Y17" s="126"/>
-      <c r="Z17" s="126"/>
-      <c r="AA17" s="126"/>
-      <c r="AB17" s="126"/>
-      <c r="AC17" s="126"/>
-      <c r="AD17" s="126"/>
-      <c r="AE17" s="127"/>
-      <c r="AF17" s="128"/>
-      <c r="AG17" s="129"/>
-      <c r="AH17" s="129"/>
-      <c r="AI17" s="130"/>
+      <c r="B17" s="150"/>
+      <c r="C17" s="151"/>
+      <c r="D17" s="152"/>
+      <c r="E17" s="153"/>
+      <c r="F17" s="154"/>
+      <c r="G17" s="123"/>
+      <c r="H17" s="124"/>
+      <c r="I17" s="125"/>
+      <c r="J17" s="135"/>
+      <c r="K17" s="136"/>
+      <c r="L17" s="136"/>
+      <c r="M17" s="136"/>
+      <c r="N17" s="136"/>
+      <c r="O17" s="136"/>
+      <c r="P17" s="137"/>
+      <c r="Q17" s="132"/>
+      <c r="R17" s="133"/>
+      <c r="S17" s="133"/>
+      <c r="T17" s="133"/>
+      <c r="U17" s="133"/>
+      <c r="V17" s="133"/>
+      <c r="W17" s="133"/>
+      <c r="X17" s="133"/>
+      <c r="Y17" s="133"/>
+      <c r="Z17" s="133"/>
+      <c r="AA17" s="133"/>
+      <c r="AB17" s="133"/>
+      <c r="AC17" s="133"/>
+      <c r="AD17" s="133"/>
+      <c r="AE17" s="134"/>
+      <c r="AF17" s="135"/>
+      <c r="AG17" s="136"/>
+      <c r="AH17" s="136"/>
+      <c r="AI17" s="137"/>
     </row>
     <row r="18" spans="1:35" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="40"/>
-      <c r="B18" s="131"/>
-      <c r="C18" s="132"/>
-      <c r="D18" s="133"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="135"/>
-      <c r="G18" s="136"/>
-      <c r="H18" s="137"/>
-      <c r="I18" s="138"/>
-      <c r="J18" s="128"/>
-      <c r="K18" s="129"/>
-      <c r="L18" s="129"/>
-      <c r="M18" s="129"/>
-      <c r="N18" s="129"/>
-      <c r="O18" s="129"/>
-      <c r="P18" s="130"/>
-      <c r="Q18" s="125"/>
-      <c r="R18" s="126"/>
-      <c r="S18" s="126"/>
-      <c r="T18" s="126"/>
-      <c r="U18" s="126"/>
-      <c r="V18" s="126"/>
-      <c r="W18" s="126"/>
-      <c r="X18" s="126"/>
-      <c r="Y18" s="126"/>
-      <c r="Z18" s="126"/>
-      <c r="AA18" s="126"/>
-      <c r="AB18" s="126"/>
-      <c r="AC18" s="126"/>
-      <c r="AD18" s="126"/>
-      <c r="AE18" s="127"/>
-      <c r="AF18" s="128"/>
-      <c r="AG18" s="129"/>
-      <c r="AH18" s="129"/>
-      <c r="AI18" s="130"/>
+      <c r="B18" s="150"/>
+      <c r="C18" s="151"/>
+      <c r="D18" s="152"/>
+      <c r="E18" s="153"/>
+      <c r="F18" s="154"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="124"/>
+      <c r="I18" s="125"/>
+      <c r="J18" s="135"/>
+      <c r="K18" s="136"/>
+      <c r="L18" s="136"/>
+      <c r="M18" s="136"/>
+      <c r="N18" s="136"/>
+      <c r="O18" s="136"/>
+      <c r="P18" s="137"/>
+      <c r="Q18" s="132"/>
+      <c r="R18" s="133"/>
+      <c r="S18" s="133"/>
+      <c r="T18" s="133"/>
+      <c r="U18" s="133"/>
+      <c r="V18" s="133"/>
+      <c r="W18" s="133"/>
+      <c r="X18" s="133"/>
+      <c r="Y18" s="133"/>
+      <c r="Z18" s="133"/>
+      <c r="AA18" s="133"/>
+      <c r="AB18" s="133"/>
+      <c r="AC18" s="133"/>
+      <c r="AD18" s="133"/>
+      <c r="AE18" s="134"/>
+      <c r="AF18" s="135"/>
+      <c r="AG18" s="136"/>
+      <c r="AH18" s="136"/>
+      <c r="AI18" s="137"/>
     </row>
     <row r="19" spans="1:35" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="40"/>
-      <c r="B19" s="131"/>
-      <c r="C19" s="132"/>
-      <c r="D19" s="133"/>
-      <c r="E19" s="134"/>
-      <c r="F19" s="135"/>
-      <c r="G19" s="136"/>
-      <c r="H19" s="137"/>
-      <c r="I19" s="138"/>
-      <c r="J19" s="128"/>
-      <c r="K19" s="129"/>
-      <c r="L19" s="129"/>
-      <c r="M19" s="129"/>
-      <c r="N19" s="129"/>
-      <c r="O19" s="129"/>
-      <c r="P19" s="130"/>
-      <c r="Q19" s="125"/>
-      <c r="R19" s="126"/>
-      <c r="S19" s="126"/>
-      <c r="T19" s="126"/>
-      <c r="U19" s="126"/>
-      <c r="V19" s="126"/>
-      <c r="W19" s="126"/>
-      <c r="X19" s="126"/>
-      <c r="Y19" s="126"/>
-      <c r="Z19" s="126"/>
-      <c r="AA19" s="126"/>
-      <c r="AB19" s="126"/>
-      <c r="AC19" s="126"/>
-      <c r="AD19" s="126"/>
-      <c r="AE19" s="127"/>
-      <c r="AF19" s="128"/>
-      <c r="AG19" s="129"/>
-      <c r="AH19" s="129"/>
-      <c r="AI19" s="130"/>
+      <c r="B19" s="150"/>
+      <c r="C19" s="151"/>
+      <c r="D19" s="152"/>
+      <c r="E19" s="153"/>
+      <c r="F19" s="154"/>
+      <c r="G19" s="123"/>
+      <c r="H19" s="124"/>
+      <c r="I19" s="125"/>
+      <c r="J19" s="135"/>
+      <c r="K19" s="136"/>
+      <c r="L19" s="136"/>
+      <c r="M19" s="136"/>
+      <c r="N19" s="136"/>
+      <c r="O19" s="136"/>
+      <c r="P19" s="137"/>
+      <c r="Q19" s="132"/>
+      <c r="R19" s="133"/>
+      <c r="S19" s="133"/>
+      <c r="T19" s="133"/>
+      <c r="U19" s="133"/>
+      <c r="V19" s="133"/>
+      <c r="W19" s="133"/>
+      <c r="X19" s="133"/>
+      <c r="Y19" s="133"/>
+      <c r="Z19" s="133"/>
+      <c r="AA19" s="133"/>
+      <c r="AB19" s="133"/>
+      <c r="AC19" s="133"/>
+      <c r="AD19" s="133"/>
+      <c r="AE19" s="134"/>
+      <c r="AF19" s="135"/>
+      <c r="AG19" s="136"/>
+      <c r="AH19" s="136"/>
+      <c r="AI19" s="137"/>
     </row>
     <row r="20" spans="1:35" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="40"/>
-      <c r="B20" s="131"/>
-      <c r="C20" s="132"/>
-      <c r="D20" s="133"/>
-      <c r="E20" s="134"/>
-      <c r="F20" s="135"/>
-      <c r="G20" s="136"/>
-      <c r="H20" s="137"/>
-      <c r="I20" s="138"/>
-      <c r="J20" s="128"/>
-      <c r="K20" s="129"/>
-      <c r="L20" s="129"/>
-      <c r="M20" s="129"/>
-      <c r="N20" s="129"/>
-      <c r="O20" s="129"/>
-      <c r="P20" s="130"/>
-      <c r="Q20" s="125"/>
-      <c r="R20" s="126"/>
-      <c r="S20" s="126"/>
-      <c r="T20" s="126"/>
-      <c r="U20" s="126"/>
-      <c r="V20" s="126"/>
-      <c r="W20" s="126"/>
-      <c r="X20" s="126"/>
-      <c r="Y20" s="126"/>
-      <c r="Z20" s="126"/>
-      <c r="AA20" s="126"/>
-      <c r="AB20" s="126"/>
-      <c r="AC20" s="126"/>
-      <c r="AD20" s="126"/>
-      <c r="AE20" s="127"/>
-      <c r="AF20" s="128"/>
-      <c r="AG20" s="129"/>
-      <c r="AH20" s="129"/>
-      <c r="AI20" s="130"/>
+      <c r="B20" s="150"/>
+      <c r="C20" s="151"/>
+      <c r="D20" s="152"/>
+      <c r="E20" s="153"/>
+      <c r="F20" s="154"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="124"/>
+      <c r="I20" s="125"/>
+      <c r="J20" s="135"/>
+      <c r="K20" s="136"/>
+      <c r="L20" s="136"/>
+      <c r="M20" s="136"/>
+      <c r="N20" s="136"/>
+      <c r="O20" s="136"/>
+      <c r="P20" s="137"/>
+      <c r="Q20" s="132"/>
+      <c r="R20" s="133"/>
+      <c r="S20" s="133"/>
+      <c r="T20" s="133"/>
+      <c r="U20" s="133"/>
+      <c r="V20" s="133"/>
+      <c r="W20" s="133"/>
+      <c r="X20" s="133"/>
+      <c r="Y20" s="133"/>
+      <c r="Z20" s="133"/>
+      <c r="AA20" s="133"/>
+      <c r="AB20" s="133"/>
+      <c r="AC20" s="133"/>
+      <c r="AD20" s="133"/>
+      <c r="AE20" s="134"/>
+      <c r="AF20" s="135"/>
+      <c r="AG20" s="136"/>
+      <c r="AH20" s="136"/>
+      <c r="AI20" s="137"/>
     </row>
     <row r="21" spans="1:35" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="40"/>
-      <c r="B21" s="131"/>
-      <c r="C21" s="132"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="134"/>
-      <c r="F21" s="135"/>
-      <c r="G21" s="136"/>
-      <c r="H21" s="137"/>
-      <c r="I21" s="138"/>
-      <c r="J21" s="128"/>
-      <c r="K21" s="129"/>
-      <c r="L21" s="129"/>
-      <c r="M21" s="129"/>
-      <c r="N21" s="129"/>
-      <c r="O21" s="129"/>
-      <c r="P21" s="130"/>
-      <c r="Q21" s="125"/>
-      <c r="R21" s="126"/>
-      <c r="S21" s="126"/>
-      <c r="T21" s="126"/>
-      <c r="U21" s="126"/>
-      <c r="V21" s="126"/>
-      <c r="W21" s="126"/>
-      <c r="X21" s="126"/>
-      <c r="Y21" s="126"/>
-      <c r="Z21" s="126"/>
-      <c r="AA21" s="126"/>
-      <c r="AB21" s="126"/>
-      <c r="AC21" s="126"/>
-      <c r="AD21" s="126"/>
-      <c r="AE21" s="127"/>
-      <c r="AF21" s="128"/>
-      <c r="AG21" s="129"/>
-      <c r="AH21" s="129"/>
-      <c r="AI21" s="130"/>
+      <c r="B21" s="150"/>
+      <c r="C21" s="151"/>
+      <c r="D21" s="152"/>
+      <c r="E21" s="153"/>
+      <c r="F21" s="154"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="124"/>
+      <c r="I21" s="125"/>
+      <c r="J21" s="135"/>
+      <c r="K21" s="136"/>
+      <c r="L21" s="136"/>
+      <c r="M21" s="136"/>
+      <c r="N21" s="136"/>
+      <c r="O21" s="136"/>
+      <c r="P21" s="137"/>
+      <c r="Q21" s="132"/>
+      <c r="R21" s="133"/>
+      <c r="S21" s="133"/>
+      <c r="T21" s="133"/>
+      <c r="U21" s="133"/>
+      <c r="V21" s="133"/>
+      <c r="W21" s="133"/>
+      <c r="X21" s="133"/>
+      <c r="Y21" s="133"/>
+      <c r="Z21" s="133"/>
+      <c r="AA21" s="133"/>
+      <c r="AB21" s="133"/>
+      <c r="AC21" s="133"/>
+      <c r="AD21" s="133"/>
+      <c r="AE21" s="134"/>
+      <c r="AF21" s="135"/>
+      <c r="AG21" s="136"/>
+      <c r="AH21" s="136"/>
+      <c r="AI21" s="137"/>
     </row>
     <row r="22" spans="1:35" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="40"/>
-      <c r="B22" s="131"/>
-      <c r="C22" s="132"/>
-      <c r="D22" s="133"/>
-      <c r="E22" s="134"/>
-      <c r="F22" s="135"/>
-      <c r="G22" s="136"/>
-      <c r="H22" s="137"/>
-      <c r="I22" s="138"/>
-      <c r="J22" s="128"/>
-      <c r="K22" s="129"/>
-      <c r="L22" s="129"/>
-      <c r="M22" s="129"/>
-      <c r="N22" s="129"/>
-      <c r="O22" s="129"/>
-      <c r="P22" s="130"/>
-      <c r="Q22" s="125"/>
-      <c r="R22" s="126"/>
-      <c r="S22" s="126"/>
-      <c r="T22" s="126"/>
-      <c r="U22" s="126"/>
-      <c r="V22" s="126"/>
-      <c r="W22" s="126"/>
-      <c r="X22" s="126"/>
-      <c r="Y22" s="126"/>
-      <c r="Z22" s="126"/>
-      <c r="AA22" s="126"/>
-      <c r="AB22" s="126"/>
-      <c r="AC22" s="126"/>
-      <c r="AD22" s="126"/>
-      <c r="AE22" s="127"/>
-      <c r="AF22" s="128"/>
-      <c r="AG22" s="129"/>
-      <c r="AH22" s="129"/>
-      <c r="AI22" s="130"/>
+      <c r="B22" s="150"/>
+      <c r="C22" s="151"/>
+      <c r="D22" s="152"/>
+      <c r="E22" s="153"/>
+      <c r="F22" s="154"/>
+      <c r="G22" s="123"/>
+      <c r="H22" s="124"/>
+      <c r="I22" s="125"/>
+      <c r="J22" s="135"/>
+      <c r="K22" s="136"/>
+      <c r="L22" s="136"/>
+      <c r="M22" s="136"/>
+      <c r="N22" s="136"/>
+      <c r="O22" s="136"/>
+      <c r="P22" s="137"/>
+      <c r="Q22" s="132"/>
+      <c r="R22" s="133"/>
+      <c r="S22" s="133"/>
+      <c r="T22" s="133"/>
+      <c r="U22" s="133"/>
+      <c r="V22" s="133"/>
+      <c r="W22" s="133"/>
+      <c r="X22" s="133"/>
+      <c r="Y22" s="133"/>
+      <c r="Z22" s="133"/>
+      <c r="AA22" s="133"/>
+      <c r="AB22" s="133"/>
+      <c r="AC22" s="133"/>
+      <c r="AD22" s="133"/>
+      <c r="AE22" s="134"/>
+      <c r="AF22" s="135"/>
+      <c r="AG22" s="136"/>
+      <c r="AH22" s="136"/>
+      <c r="AI22" s="137"/>
     </row>
     <row r="23" spans="1:35" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="40"/>
-      <c r="B23" s="131"/>
-      <c r="C23" s="132"/>
-      <c r="D23" s="133"/>
-      <c r="E23" s="134"/>
-      <c r="F23" s="135"/>
-      <c r="G23" s="136"/>
-      <c r="H23" s="137"/>
-      <c r="I23" s="138"/>
-      <c r="J23" s="128"/>
-      <c r="K23" s="129"/>
-      <c r="L23" s="129"/>
-      <c r="M23" s="129"/>
-      <c r="N23" s="129"/>
-      <c r="O23" s="129"/>
-      <c r="P23" s="130"/>
-      <c r="Q23" s="125"/>
-      <c r="R23" s="126"/>
-      <c r="S23" s="126"/>
-      <c r="T23" s="126"/>
-      <c r="U23" s="126"/>
-      <c r="V23" s="126"/>
-      <c r="W23" s="126"/>
-      <c r="X23" s="126"/>
-      <c r="Y23" s="126"/>
-      <c r="Z23" s="126"/>
-      <c r="AA23" s="126"/>
-      <c r="AB23" s="126"/>
-      <c r="AC23" s="126"/>
-      <c r="AD23" s="126"/>
-      <c r="AE23" s="127"/>
-      <c r="AF23" s="128"/>
-      <c r="AG23" s="129"/>
-      <c r="AH23" s="129"/>
-      <c r="AI23" s="130"/>
+      <c r="B23" s="150"/>
+      <c r="C23" s="151"/>
+      <c r="D23" s="152"/>
+      <c r="E23" s="153"/>
+      <c r="F23" s="154"/>
+      <c r="G23" s="123"/>
+      <c r="H23" s="124"/>
+      <c r="I23" s="125"/>
+      <c r="J23" s="135"/>
+      <c r="K23" s="136"/>
+      <c r="L23" s="136"/>
+      <c r="M23" s="136"/>
+      <c r="N23" s="136"/>
+      <c r="O23" s="136"/>
+      <c r="P23" s="137"/>
+      <c r="Q23" s="132"/>
+      <c r="R23" s="133"/>
+      <c r="S23" s="133"/>
+      <c r="T23" s="133"/>
+      <c r="U23" s="133"/>
+      <c r="V23" s="133"/>
+      <c r="W23" s="133"/>
+      <c r="X23" s="133"/>
+      <c r="Y23" s="133"/>
+      <c r="Z23" s="133"/>
+      <c r="AA23" s="133"/>
+      <c r="AB23" s="133"/>
+      <c r="AC23" s="133"/>
+      <c r="AD23" s="133"/>
+      <c r="AE23" s="134"/>
+      <c r="AF23" s="135"/>
+      <c r="AG23" s="136"/>
+      <c r="AH23" s="136"/>
+      <c r="AI23" s="137"/>
     </row>
     <row r="24" spans="1:35" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="40"/>
-      <c r="B24" s="131"/>
-      <c r="C24" s="132"/>
-      <c r="D24" s="133"/>
-      <c r="E24" s="134"/>
-      <c r="F24" s="135"/>
-      <c r="G24" s="136"/>
-      <c r="H24" s="137"/>
-      <c r="I24" s="138"/>
-      <c r="J24" s="128"/>
-      <c r="K24" s="129"/>
-      <c r="L24" s="129"/>
-      <c r="M24" s="129"/>
-      <c r="N24" s="129"/>
-      <c r="O24" s="129"/>
-      <c r="P24" s="130"/>
-      <c r="Q24" s="125"/>
-      <c r="R24" s="126"/>
-      <c r="S24" s="126"/>
-      <c r="T24" s="126"/>
-      <c r="U24" s="126"/>
-      <c r="V24" s="126"/>
-      <c r="W24" s="126"/>
-      <c r="X24" s="126"/>
-      <c r="Y24" s="126"/>
-      <c r="Z24" s="126"/>
-      <c r="AA24" s="126"/>
-      <c r="AB24" s="126"/>
-      <c r="AC24" s="126"/>
-      <c r="AD24" s="126"/>
-      <c r="AE24" s="127"/>
-      <c r="AF24" s="128"/>
-      <c r="AG24" s="129"/>
-      <c r="AH24" s="129"/>
-      <c r="AI24" s="130"/>
+      <c r="B24" s="150"/>
+      <c r="C24" s="151"/>
+      <c r="D24" s="152"/>
+      <c r="E24" s="153"/>
+      <c r="F24" s="154"/>
+      <c r="G24" s="123"/>
+      <c r="H24" s="124"/>
+      <c r="I24" s="125"/>
+      <c r="J24" s="135"/>
+      <c r="K24" s="136"/>
+      <c r="L24" s="136"/>
+      <c r="M24" s="136"/>
+      <c r="N24" s="136"/>
+      <c r="O24" s="136"/>
+      <c r="P24" s="137"/>
+      <c r="Q24" s="132"/>
+      <c r="R24" s="133"/>
+      <c r="S24" s="133"/>
+      <c r="T24" s="133"/>
+      <c r="U24" s="133"/>
+      <c r="V24" s="133"/>
+      <c r="W24" s="133"/>
+      <c r="X24" s="133"/>
+      <c r="Y24" s="133"/>
+      <c r="Z24" s="133"/>
+      <c r="AA24" s="133"/>
+      <c r="AB24" s="133"/>
+      <c r="AC24" s="133"/>
+      <c r="AD24" s="133"/>
+      <c r="AE24" s="134"/>
+      <c r="AF24" s="135"/>
+      <c r="AG24" s="136"/>
+      <c r="AH24" s="136"/>
+      <c r="AI24" s="137"/>
     </row>
     <row r="25" spans="1:35" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="40"/>
-      <c r="B25" s="131"/>
-      <c r="C25" s="132"/>
-      <c r="D25" s="133"/>
-      <c r="E25" s="134"/>
-      <c r="F25" s="135"/>
-      <c r="G25" s="136"/>
-      <c r="H25" s="137"/>
-      <c r="I25" s="138"/>
-      <c r="J25" s="128"/>
-      <c r="K25" s="129"/>
-      <c r="L25" s="129"/>
-      <c r="M25" s="129"/>
-      <c r="N25" s="129"/>
-      <c r="O25" s="129"/>
-      <c r="P25" s="130"/>
-      <c r="Q25" s="125"/>
-      <c r="R25" s="126"/>
-      <c r="S25" s="126"/>
-      <c r="T25" s="126"/>
-      <c r="U25" s="126"/>
-      <c r="V25" s="126"/>
-      <c r="W25" s="126"/>
-      <c r="X25" s="126"/>
-      <c r="Y25" s="126"/>
-      <c r="Z25" s="126"/>
-      <c r="AA25" s="126"/>
-      <c r="AB25" s="126"/>
-      <c r="AC25" s="126"/>
-      <c r="AD25" s="126"/>
-      <c r="AE25" s="127"/>
-      <c r="AF25" s="128"/>
-      <c r="AG25" s="129"/>
-      <c r="AH25" s="129"/>
-      <c r="AI25" s="130"/>
+      <c r="B25" s="150"/>
+      <c r="C25" s="151"/>
+      <c r="D25" s="152"/>
+      <c r="E25" s="153"/>
+      <c r="F25" s="154"/>
+      <c r="G25" s="123"/>
+      <c r="H25" s="124"/>
+      <c r="I25" s="125"/>
+      <c r="J25" s="135"/>
+      <c r="K25" s="136"/>
+      <c r="L25" s="136"/>
+      <c r="M25" s="136"/>
+      <c r="N25" s="136"/>
+      <c r="O25" s="136"/>
+      <c r="P25" s="137"/>
+      <c r="Q25" s="132"/>
+      <c r="R25" s="133"/>
+      <c r="S25" s="133"/>
+      <c r="T25" s="133"/>
+      <c r="U25" s="133"/>
+      <c r="V25" s="133"/>
+      <c r="W25" s="133"/>
+      <c r="X25" s="133"/>
+      <c r="Y25" s="133"/>
+      <c r="Z25" s="133"/>
+      <c r="AA25" s="133"/>
+      <c r="AB25" s="133"/>
+      <c r="AC25" s="133"/>
+      <c r="AD25" s="133"/>
+      <c r="AE25" s="134"/>
+      <c r="AF25" s="135"/>
+      <c r="AG25" s="136"/>
+      <c r="AH25" s="136"/>
+      <c r="AI25" s="137"/>
     </row>
     <row r="26" spans="1:35" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="40"/>
-      <c r="B26" s="131"/>
-      <c r="C26" s="132"/>
-      <c r="D26" s="133"/>
-      <c r="E26" s="134"/>
-      <c r="F26" s="135"/>
-      <c r="G26" s="136"/>
-      <c r="H26" s="137"/>
-      <c r="I26" s="138"/>
-      <c r="J26" s="128"/>
-      <c r="K26" s="129"/>
-      <c r="L26" s="129"/>
-      <c r="M26" s="129"/>
-      <c r="N26" s="129"/>
-      <c r="O26" s="129"/>
-      <c r="P26" s="130"/>
-      <c r="Q26" s="125"/>
-      <c r="R26" s="126"/>
-      <c r="S26" s="126"/>
-      <c r="T26" s="126"/>
-      <c r="U26" s="126"/>
-      <c r="V26" s="126"/>
-      <c r="W26" s="126"/>
-      <c r="X26" s="126"/>
-      <c r="Y26" s="126"/>
-      <c r="Z26" s="126"/>
-      <c r="AA26" s="126"/>
-      <c r="AB26" s="126"/>
-      <c r="AC26" s="126"/>
-      <c r="AD26" s="126"/>
-      <c r="AE26" s="127"/>
-      <c r="AF26" s="128"/>
-      <c r="AG26" s="129"/>
-      <c r="AH26" s="129"/>
-      <c r="AI26" s="130"/>
+      <c r="B26" s="150"/>
+      <c r="C26" s="151"/>
+      <c r="D26" s="152"/>
+      <c r="E26" s="153"/>
+      <c r="F26" s="154"/>
+      <c r="G26" s="123"/>
+      <c r="H26" s="124"/>
+      <c r="I26" s="125"/>
+      <c r="J26" s="135"/>
+      <c r="K26" s="136"/>
+      <c r="L26" s="136"/>
+      <c r="M26" s="136"/>
+      <c r="N26" s="136"/>
+      <c r="O26" s="136"/>
+      <c r="P26" s="137"/>
+      <c r="Q26" s="132"/>
+      <c r="R26" s="133"/>
+      <c r="S26" s="133"/>
+      <c r="T26" s="133"/>
+      <c r="U26" s="133"/>
+      <c r="V26" s="133"/>
+      <c r="W26" s="133"/>
+      <c r="X26" s="133"/>
+      <c r="Y26" s="133"/>
+      <c r="Z26" s="133"/>
+      <c r="AA26" s="133"/>
+      <c r="AB26" s="133"/>
+      <c r="AC26" s="133"/>
+      <c r="AD26" s="133"/>
+      <c r="AE26" s="134"/>
+      <c r="AF26" s="135"/>
+      <c r="AG26" s="136"/>
+      <c r="AH26" s="136"/>
+      <c r="AI26" s="137"/>
     </row>
     <row r="27" spans="1:35" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="40"/>
-      <c r="B27" s="131"/>
-      <c r="C27" s="132"/>
-      <c r="D27" s="133"/>
-      <c r="E27" s="134"/>
-      <c r="F27" s="135"/>
-      <c r="G27" s="136"/>
-      <c r="H27" s="137"/>
-      <c r="I27" s="138"/>
-      <c r="J27" s="128"/>
-      <c r="K27" s="129"/>
-      <c r="L27" s="129"/>
-      <c r="M27" s="129"/>
-      <c r="N27" s="129"/>
-      <c r="O27" s="129"/>
-      <c r="P27" s="130"/>
-      <c r="Q27" s="125"/>
-      <c r="R27" s="126"/>
-      <c r="S27" s="126"/>
-      <c r="T27" s="126"/>
-      <c r="U27" s="126"/>
-      <c r="V27" s="126"/>
-      <c r="W27" s="126"/>
-      <c r="X27" s="126"/>
-      <c r="Y27" s="126"/>
-      <c r="Z27" s="126"/>
-      <c r="AA27" s="126"/>
-      <c r="AB27" s="126"/>
-      <c r="AC27" s="126"/>
-      <c r="AD27" s="126"/>
-      <c r="AE27" s="127"/>
-      <c r="AF27" s="128"/>
-      <c r="AG27" s="129"/>
-      <c r="AH27" s="129"/>
-      <c r="AI27" s="130"/>
+      <c r="B27" s="150"/>
+      <c r="C27" s="151"/>
+      <c r="D27" s="152"/>
+      <c r="E27" s="153"/>
+      <c r="F27" s="154"/>
+      <c r="G27" s="123"/>
+      <c r="H27" s="124"/>
+      <c r="I27" s="125"/>
+      <c r="J27" s="135"/>
+      <c r="K27" s="136"/>
+      <c r="L27" s="136"/>
+      <c r="M27" s="136"/>
+      <c r="N27" s="136"/>
+      <c r="O27" s="136"/>
+      <c r="P27" s="137"/>
+      <c r="Q27" s="132"/>
+      <c r="R27" s="133"/>
+      <c r="S27" s="133"/>
+      <c r="T27" s="133"/>
+      <c r="U27" s="133"/>
+      <c r="V27" s="133"/>
+      <c r="W27" s="133"/>
+      <c r="X27" s="133"/>
+      <c r="Y27" s="133"/>
+      <c r="Z27" s="133"/>
+      <c r="AA27" s="133"/>
+      <c r="AB27" s="133"/>
+      <c r="AC27" s="133"/>
+      <c r="AD27" s="133"/>
+      <c r="AE27" s="134"/>
+      <c r="AF27" s="135"/>
+      <c r="AG27" s="136"/>
+      <c r="AH27" s="136"/>
+      <c r="AI27" s="137"/>
     </row>
     <row r="28" spans="1:35" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="40"/>
-      <c r="B28" s="131"/>
-      <c r="C28" s="132"/>
-      <c r="D28" s="133"/>
-      <c r="E28" s="134"/>
-      <c r="F28" s="135"/>
-      <c r="G28" s="136"/>
-      <c r="H28" s="137"/>
-      <c r="I28" s="138"/>
-      <c r="J28" s="128"/>
-      <c r="K28" s="129"/>
-      <c r="L28" s="129"/>
-      <c r="M28" s="129"/>
-      <c r="N28" s="129"/>
-      <c r="O28" s="129"/>
-      <c r="P28" s="130"/>
-      <c r="Q28" s="125"/>
-      <c r="R28" s="126"/>
-      <c r="S28" s="126"/>
-      <c r="T28" s="126"/>
-      <c r="U28" s="126"/>
-      <c r="V28" s="126"/>
-      <c r="W28" s="126"/>
-      <c r="X28" s="126"/>
-      <c r="Y28" s="126"/>
-      <c r="Z28" s="126"/>
-      <c r="AA28" s="126"/>
-      <c r="AB28" s="126"/>
-      <c r="AC28" s="126"/>
-      <c r="AD28" s="126"/>
-      <c r="AE28" s="127"/>
-      <c r="AF28" s="128"/>
-      <c r="AG28" s="129"/>
-      <c r="AH28" s="129"/>
-      <c r="AI28" s="130"/>
+      <c r="B28" s="150"/>
+      <c r="C28" s="151"/>
+      <c r="D28" s="152"/>
+      <c r="E28" s="153"/>
+      <c r="F28" s="154"/>
+      <c r="G28" s="123"/>
+      <c r="H28" s="124"/>
+      <c r="I28" s="125"/>
+      <c r="J28" s="135"/>
+      <c r="K28" s="136"/>
+      <c r="L28" s="136"/>
+      <c r="M28" s="136"/>
+      <c r="N28" s="136"/>
+      <c r="O28" s="136"/>
+      <c r="P28" s="137"/>
+      <c r="Q28" s="132"/>
+      <c r="R28" s="133"/>
+      <c r="S28" s="133"/>
+      <c r="T28" s="133"/>
+      <c r="U28" s="133"/>
+      <c r="V28" s="133"/>
+      <c r="W28" s="133"/>
+      <c r="X28" s="133"/>
+      <c r="Y28" s="133"/>
+      <c r="Z28" s="133"/>
+      <c r="AA28" s="133"/>
+      <c r="AB28" s="133"/>
+      <c r="AC28" s="133"/>
+      <c r="AD28" s="133"/>
+      <c r="AE28" s="134"/>
+      <c r="AF28" s="135"/>
+      <c r="AG28" s="136"/>
+      <c r="AH28" s="136"/>
+      <c r="AI28" s="137"/>
     </row>
     <row r="29" spans="1:35" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="40"/>
-      <c r="B29" s="131"/>
-      <c r="C29" s="132"/>
-      <c r="D29" s="133"/>
-      <c r="E29" s="134"/>
-      <c r="F29" s="135"/>
-      <c r="G29" s="136"/>
-      <c r="H29" s="137"/>
-      <c r="I29" s="138"/>
-      <c r="J29" s="128"/>
-      <c r="K29" s="129"/>
-      <c r="L29" s="129"/>
-      <c r="M29" s="129"/>
-      <c r="N29" s="129"/>
-      <c r="O29" s="129"/>
-      <c r="P29" s="130"/>
-      <c r="Q29" s="125"/>
-      <c r="R29" s="126"/>
-      <c r="S29" s="126"/>
-      <c r="T29" s="126"/>
-      <c r="U29" s="126"/>
-      <c r="V29" s="126"/>
-      <c r="W29" s="126"/>
-      <c r="X29" s="126"/>
-      <c r="Y29" s="126"/>
-      <c r="Z29" s="126"/>
-      <c r="AA29" s="126"/>
-      <c r="AB29" s="126"/>
-      <c r="AC29" s="126"/>
-      <c r="AD29" s="126"/>
-      <c r="AE29" s="127"/>
-      <c r="AF29" s="128"/>
-      <c r="AG29" s="129"/>
-      <c r="AH29" s="129"/>
-      <c r="AI29" s="130"/>
+      <c r="B29" s="150"/>
+      <c r="C29" s="151"/>
+      <c r="D29" s="152"/>
+      <c r="E29" s="153"/>
+      <c r="F29" s="154"/>
+      <c r="G29" s="123"/>
+      <c r="H29" s="124"/>
+      <c r="I29" s="125"/>
+      <c r="J29" s="135"/>
+      <c r="K29" s="136"/>
+      <c r="L29" s="136"/>
+      <c r="M29" s="136"/>
+      <c r="N29" s="136"/>
+      <c r="O29" s="136"/>
+      <c r="P29" s="137"/>
+      <c r="Q29" s="132"/>
+      <c r="R29" s="133"/>
+      <c r="S29" s="133"/>
+      <c r="T29" s="133"/>
+      <c r="U29" s="133"/>
+      <c r="V29" s="133"/>
+      <c r="W29" s="133"/>
+      <c r="X29" s="133"/>
+      <c r="Y29" s="133"/>
+      <c r="Z29" s="133"/>
+      <c r="AA29" s="133"/>
+      <c r="AB29" s="133"/>
+      <c r="AC29" s="133"/>
+      <c r="AD29" s="133"/>
+      <c r="AE29" s="134"/>
+      <c r="AF29" s="135"/>
+      <c r="AG29" s="136"/>
+      <c r="AH29" s="136"/>
+      <c r="AI29" s="137"/>
     </row>
     <row r="30" spans="1:35" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="40"/>
-      <c r="B30" s="131"/>
-      <c r="C30" s="132"/>
-      <c r="D30" s="133"/>
-      <c r="E30" s="134"/>
-      <c r="F30" s="135"/>
-      <c r="G30" s="136"/>
-      <c r="H30" s="137"/>
-      <c r="I30" s="138"/>
-      <c r="J30" s="128"/>
-      <c r="K30" s="129"/>
-      <c r="L30" s="129"/>
-      <c r="M30" s="129"/>
-      <c r="N30" s="129"/>
-      <c r="O30" s="129"/>
-      <c r="P30" s="130"/>
-      <c r="Q30" s="125"/>
-      <c r="R30" s="126"/>
-      <c r="S30" s="126"/>
-      <c r="T30" s="126"/>
-      <c r="U30" s="126"/>
-      <c r="V30" s="126"/>
-      <c r="W30" s="126"/>
-      <c r="X30" s="126"/>
-      <c r="Y30" s="126"/>
-      <c r="Z30" s="126"/>
-      <c r="AA30" s="126"/>
-      <c r="AB30" s="126"/>
-      <c r="AC30" s="126"/>
-      <c r="AD30" s="126"/>
-      <c r="AE30" s="127"/>
-      <c r="AF30" s="128"/>
-      <c r="AG30" s="129"/>
-      <c r="AH30" s="129"/>
-      <c r="AI30" s="130"/>
+      <c r="B30" s="150"/>
+      <c r="C30" s="151"/>
+      <c r="D30" s="152"/>
+      <c r="E30" s="153"/>
+      <c r="F30" s="154"/>
+      <c r="G30" s="123"/>
+      <c r="H30" s="124"/>
+      <c r="I30" s="125"/>
+      <c r="J30" s="135"/>
+      <c r="K30" s="136"/>
+      <c r="L30" s="136"/>
+      <c r="M30" s="136"/>
+      <c r="N30" s="136"/>
+      <c r="O30" s="136"/>
+      <c r="P30" s="137"/>
+      <c r="Q30" s="132"/>
+      <c r="R30" s="133"/>
+      <c r="S30" s="133"/>
+      <c r="T30" s="133"/>
+      <c r="U30" s="133"/>
+      <c r="V30" s="133"/>
+      <c r="W30" s="133"/>
+      <c r="X30" s="133"/>
+      <c r="Y30" s="133"/>
+      <c r="Z30" s="133"/>
+      <c r="AA30" s="133"/>
+      <c r="AB30" s="133"/>
+      <c r="AC30" s="133"/>
+      <c r="AD30" s="133"/>
+      <c r="AE30" s="134"/>
+      <c r="AF30" s="135"/>
+      <c r="AG30" s="136"/>
+      <c r="AH30" s="136"/>
+      <c r="AI30" s="137"/>
     </row>
     <row r="31" spans="1:35" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="40"/>
-      <c r="B31" s="131"/>
-      <c r="C31" s="132"/>
-      <c r="D31" s="133"/>
-      <c r="E31" s="134"/>
-      <c r="F31" s="135"/>
-      <c r="G31" s="136"/>
-      <c r="H31" s="137"/>
-      <c r="I31" s="138"/>
-      <c r="J31" s="128"/>
-      <c r="K31" s="129"/>
-      <c r="L31" s="129"/>
-      <c r="M31" s="129"/>
-      <c r="N31" s="129"/>
-      <c r="O31" s="129"/>
-      <c r="P31" s="130"/>
-      <c r="Q31" s="125"/>
-      <c r="R31" s="126"/>
-      <c r="S31" s="126"/>
-      <c r="T31" s="126"/>
-      <c r="U31" s="126"/>
-      <c r="V31" s="126"/>
-      <c r="W31" s="126"/>
-      <c r="X31" s="126"/>
-      <c r="Y31" s="126"/>
-      <c r="Z31" s="126"/>
-      <c r="AA31" s="126"/>
-      <c r="AB31" s="126"/>
-      <c r="AC31" s="126"/>
-      <c r="AD31" s="126"/>
-      <c r="AE31" s="127"/>
-      <c r="AF31" s="128"/>
-      <c r="AG31" s="129"/>
-      <c r="AH31" s="129"/>
-      <c r="AI31" s="130"/>
+      <c r="B31" s="150"/>
+      <c r="C31" s="151"/>
+      <c r="D31" s="152"/>
+      <c r="E31" s="153"/>
+      <c r="F31" s="154"/>
+      <c r="G31" s="123"/>
+      <c r="H31" s="124"/>
+      <c r="I31" s="125"/>
+      <c r="J31" s="135"/>
+      <c r="K31" s="136"/>
+      <c r="L31" s="136"/>
+      <c r="M31" s="136"/>
+      <c r="N31" s="136"/>
+      <c r="O31" s="136"/>
+      <c r="P31" s="137"/>
+      <c r="Q31" s="132"/>
+      <c r="R31" s="133"/>
+      <c r="S31" s="133"/>
+      <c r="T31" s="133"/>
+      <c r="U31" s="133"/>
+      <c r="V31" s="133"/>
+      <c r="W31" s="133"/>
+      <c r="X31" s="133"/>
+      <c r="Y31" s="133"/>
+      <c r="Z31" s="133"/>
+      <c r="AA31" s="133"/>
+      <c r="AB31" s="133"/>
+      <c r="AC31" s="133"/>
+      <c r="AD31" s="133"/>
+      <c r="AE31" s="134"/>
+      <c r="AF31" s="135"/>
+      <c r="AG31" s="136"/>
+      <c r="AH31" s="136"/>
+      <c r="AI31" s="137"/>
     </row>
     <row r="32" spans="1:35" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="40"/>
-      <c r="B32" s="131"/>
-      <c r="C32" s="132"/>
-      <c r="D32" s="133"/>
-      <c r="E32" s="134"/>
-      <c r="F32" s="135"/>
-      <c r="G32" s="136"/>
-      <c r="H32" s="137"/>
-      <c r="I32" s="138"/>
-      <c r="J32" s="128"/>
-      <c r="K32" s="129"/>
-      <c r="L32" s="129"/>
-      <c r="M32" s="129"/>
-      <c r="N32" s="129"/>
-      <c r="O32" s="129"/>
-      <c r="P32" s="130"/>
-      <c r="Q32" s="125"/>
-      <c r="R32" s="126"/>
-      <c r="S32" s="126"/>
-      <c r="T32" s="126"/>
-      <c r="U32" s="126"/>
-      <c r="V32" s="126"/>
-      <c r="W32" s="126"/>
-      <c r="X32" s="126"/>
-      <c r="Y32" s="126"/>
-      <c r="Z32" s="126"/>
-      <c r="AA32" s="126"/>
-      <c r="AB32" s="126"/>
-      <c r="AC32" s="126"/>
-      <c r="AD32" s="126"/>
-      <c r="AE32" s="127"/>
-      <c r="AF32" s="128"/>
-      <c r="AG32" s="129"/>
-      <c r="AH32" s="129"/>
-      <c r="AI32" s="130"/>
+      <c r="B32" s="150"/>
+      <c r="C32" s="151"/>
+      <c r="D32" s="152"/>
+      <c r="E32" s="153"/>
+      <c r="F32" s="154"/>
+      <c r="G32" s="123"/>
+      <c r="H32" s="124"/>
+      <c r="I32" s="125"/>
+      <c r="J32" s="135"/>
+      <c r="K32" s="136"/>
+      <c r="L32" s="136"/>
+      <c r="M32" s="136"/>
+      <c r="N32" s="136"/>
+      <c r="O32" s="136"/>
+      <c r="P32" s="137"/>
+      <c r="Q32" s="132"/>
+      <c r="R32" s="133"/>
+      <c r="S32" s="133"/>
+      <c r="T32" s="133"/>
+      <c r="U32" s="133"/>
+      <c r="V32" s="133"/>
+      <c r="W32" s="133"/>
+      <c r="X32" s="133"/>
+      <c r="Y32" s="133"/>
+      <c r="Z32" s="133"/>
+      <c r="AA32" s="133"/>
+      <c r="AB32" s="133"/>
+      <c r="AC32" s="133"/>
+      <c r="AD32" s="133"/>
+      <c r="AE32" s="134"/>
+      <c r="AF32" s="135"/>
+      <c r="AG32" s="136"/>
+      <c r="AH32" s="136"/>
+      <c r="AI32" s="137"/>
     </row>
     <row r="33" spans="1:35" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33"/>
@@ -6051,155 +6092,6 @@
     </row>
   </sheetData>
   <mergeCells count="173">
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -6224,6 +6116,155 @@
     <mergeCell ref="AF21:AI21"/>
     <mergeCell ref="J22:P22"/>
     <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="S1:Z3"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <printOptions horizontalCentered="1"/>
@@ -6380,158 +6421,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="186" t="str">
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="164"/>
-      <c r="O1" s="114" t="s">
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="166" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="115"/>
-      <c r="Q1" s="115"/>
-      <c r="R1" s="116"/>
-      <c r="S1" s="177" t="str">
+      <c r="P1" s="167"/>
+      <c r="Q1" s="167"/>
+      <c r="R1" s="168"/>
+      <c r="S1" s="181" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10204/顧客選択</v>
       </c>
-      <c r="T1" s="178"/>
-      <c r="U1" s="178"/>
-      <c r="V1" s="178"/>
-      <c r="W1" s="178"/>
-      <c r="X1" s="178"/>
-      <c r="Y1" s="178"/>
-      <c r="Z1" s="179"/>
-      <c r="AA1" s="111" t="s">
+      <c r="T1" s="182"/>
+      <c r="U1" s="182"/>
+      <c r="V1" s="182"/>
+      <c r="W1" s="182"/>
+      <c r="X1" s="182"/>
+      <c r="Y1" s="182"/>
+      <c r="Z1" s="183"/>
+      <c r="AA1" s="163" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="113"/>
-      <c r="AC1" s="150" t="str">
+      <c r="AB1" s="165"/>
+      <c r="AC1" s="111" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="151"/>
-      <c r="AE1" s="151"/>
-      <c r="AF1" s="152"/>
-      <c r="AG1" s="187">
+      <c r="AD1" s="112"/>
+      <c r="AE1" s="112"/>
+      <c r="AF1" s="113"/>
+      <c r="AG1" s="177">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>44687</v>
       </c>
-      <c r="AH1" s="188"/>
-      <c r="AI1" s="189"/>
+      <c r="AH1" s="178"/>
+      <c r="AI1" s="179"/>
     </row>
     <row r="2" spans="1:35" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="163" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="186" t="str">
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
-      <c r="L2" s="163"/>
-      <c r="M2" s="163"/>
-      <c r="N2" s="164"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="118"/>
-      <c r="Q2" s="118"/>
-      <c r="R2" s="119"/>
-      <c r="S2" s="180"/>
-      <c r="T2" s="181"/>
-      <c r="U2" s="181"/>
-      <c r="V2" s="181"/>
-      <c r="W2" s="181"/>
-      <c r="X2" s="181"/>
-      <c r="Y2" s="181"/>
-      <c r="Z2" s="182"/>
-      <c r="AA2" s="111" t="s">
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="131"/>
+      <c r="O2" s="169"/>
+      <c r="P2" s="170"/>
+      <c r="Q2" s="170"/>
+      <c r="R2" s="171"/>
+      <c r="S2" s="184"/>
+      <c r="T2" s="185"/>
+      <c r="U2" s="185"/>
+      <c r="V2" s="185"/>
+      <c r="W2" s="185"/>
+      <c r="X2" s="185"/>
+      <c r="Y2" s="185"/>
+      <c r="Z2" s="186"/>
+      <c r="AA2" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="113"/>
-      <c r="AC2" s="150" t="str">
+      <c r="AB2" s="165"/>
+      <c r="AC2" s="111" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="151"/>
-      <c r="AE2" s="151"/>
-      <c r="AF2" s="152"/>
-      <c r="AG2" s="187" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="112"/>
+      <c r="AE2" s="112"/>
+      <c r="AF2" s="113"/>
+      <c r="AG2" s="177">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
-      </c>
-      <c r="AH2" s="188"/>
-      <c r="AI2" s="189"/>
+        <v>44907</v>
+      </c>
+      <c r="AH2" s="178"/>
+      <c r="AI2" s="179"/>
     </row>
     <row r="3" spans="1:35" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="163" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="186" t="str">
+      <c r="B3" s="164"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="163"/>
-      <c r="M3" s="163"/>
-      <c r="N3" s="164"/>
-      <c r="O3" s="120"/>
-      <c r="P3" s="121"/>
-      <c r="Q3" s="121"/>
-      <c r="R3" s="122"/>
-      <c r="S3" s="183"/>
-      <c r="T3" s="184"/>
-      <c r="U3" s="184"/>
-      <c r="V3" s="184"/>
-      <c r="W3" s="184"/>
-      <c r="X3" s="184"/>
-      <c r="Y3" s="184"/>
-      <c r="Z3" s="185"/>
-      <c r="AA3" s="111"/>
-      <c r="AB3" s="113"/>
-      <c r="AC3" s="150" t="str">
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="130"/>
+      <c r="N3" s="131"/>
+      <c r="O3" s="172"/>
+      <c r="P3" s="173"/>
+      <c r="Q3" s="173"/>
+      <c r="R3" s="174"/>
+      <c r="S3" s="187"/>
+      <c r="T3" s="188"/>
+      <c r="U3" s="188"/>
+      <c r="V3" s="188"/>
+      <c r="W3" s="188"/>
+      <c r="X3" s="188"/>
+      <c r="Y3" s="188"/>
+      <c r="Z3" s="189"/>
+      <c r="AA3" s="163"/>
+      <c r="AB3" s="165"/>
+      <c r="AC3" s="111" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="151"/>
-      <c r="AE3" s="151"/>
-      <c r="AF3" s="152"/>
-      <c r="AG3" s="187" t="str">
+      <c r="AD3" s="112"/>
+      <c r="AE3" s="112"/>
+      <c r="AF3" s="113"/>
+      <c r="AG3" s="177" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="188"/>
-      <c r="AI3" s="189"/>
+      <c r="AH3" s="178"/>
+      <c r="AI3" s="179"/>
     </row>
     <row r="4" spans="1:35" s="29" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="16"/>
@@ -6764,7 +6805,7 @@
     <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10"/>
       <c r="B10" s="30" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
@@ -7514,14 +7555,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -7531,6 +7564,14 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -7557,158 +7598,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="163" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="186" t="str">
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="164"/>
-      <c r="O1" s="114" t="s">
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="166" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="115"/>
-      <c r="Q1" s="115"/>
-      <c r="R1" s="116"/>
-      <c r="S1" s="177" t="str">
+      <c r="P1" s="167"/>
+      <c r="Q1" s="167"/>
+      <c r="R1" s="168"/>
+      <c r="S1" s="181" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10204/顧客選択</v>
       </c>
-      <c r="T1" s="178"/>
-      <c r="U1" s="178"/>
-      <c r="V1" s="178"/>
-      <c r="W1" s="178"/>
-      <c r="X1" s="178"/>
-      <c r="Y1" s="178"/>
-      <c r="Z1" s="179"/>
-      <c r="AA1" s="111" t="s">
+      <c r="T1" s="182"/>
+      <c r="U1" s="182"/>
+      <c r="V1" s="182"/>
+      <c r="W1" s="182"/>
+      <c r="X1" s="182"/>
+      <c r="Y1" s="182"/>
+      <c r="Z1" s="183"/>
+      <c r="AA1" s="163" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="113"/>
-      <c r="AC1" s="150" t="str">
+      <c r="AB1" s="165"/>
+      <c r="AC1" s="111" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="151"/>
-      <c r="AE1" s="151"/>
-      <c r="AF1" s="152"/>
-      <c r="AG1" s="187">
+      <c r="AD1" s="112"/>
+      <c r="AE1" s="112"/>
+      <c r="AF1" s="113"/>
+      <c r="AG1" s="177">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>44687</v>
       </c>
-      <c r="AH1" s="188"/>
-      <c r="AI1" s="189"/>
+      <c r="AH1" s="178"/>
+      <c r="AI1" s="179"/>
     </row>
     <row r="2" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="163" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="186" t="str">
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
-      <c r="L2" s="163"/>
-      <c r="M2" s="163"/>
-      <c r="N2" s="164"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="118"/>
-      <c r="Q2" s="118"/>
-      <c r="R2" s="119"/>
-      <c r="S2" s="180"/>
-      <c r="T2" s="181"/>
-      <c r="U2" s="181"/>
-      <c r="V2" s="181"/>
-      <c r="W2" s="181"/>
-      <c r="X2" s="181"/>
-      <c r="Y2" s="181"/>
-      <c r="Z2" s="182"/>
-      <c r="AA2" s="111" t="s">
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="131"/>
+      <c r="O2" s="169"/>
+      <c r="P2" s="170"/>
+      <c r="Q2" s="170"/>
+      <c r="R2" s="171"/>
+      <c r="S2" s="184"/>
+      <c r="T2" s="185"/>
+      <c r="U2" s="185"/>
+      <c r="V2" s="185"/>
+      <c r="W2" s="185"/>
+      <c r="X2" s="185"/>
+      <c r="Y2" s="185"/>
+      <c r="Z2" s="186"/>
+      <c r="AA2" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="113"/>
-      <c r="AC2" s="150" t="str">
+      <c r="AB2" s="165"/>
+      <c r="AC2" s="111" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="151"/>
-      <c r="AE2" s="151"/>
-      <c r="AF2" s="152"/>
-      <c r="AG2" s="187" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="112"/>
+      <c r="AE2" s="112"/>
+      <c r="AF2" s="113"/>
+      <c r="AG2" s="177">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
-      </c>
-      <c r="AH2" s="188"/>
-      <c r="AI2" s="189"/>
+        <v>44907</v>
+      </c>
+      <c r="AH2" s="178"/>
+      <c r="AI2" s="179"/>
     </row>
     <row r="3" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="163" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="186" t="str">
+      <c r="B3" s="164"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="163"/>
-      <c r="M3" s="163"/>
-      <c r="N3" s="164"/>
-      <c r="O3" s="120"/>
-      <c r="P3" s="121"/>
-      <c r="Q3" s="121"/>
-      <c r="R3" s="122"/>
-      <c r="S3" s="183"/>
-      <c r="T3" s="184"/>
-      <c r="U3" s="184"/>
-      <c r="V3" s="184"/>
-      <c r="W3" s="184"/>
-      <c r="X3" s="184"/>
-      <c r="Y3" s="184"/>
-      <c r="Z3" s="185"/>
-      <c r="AA3" s="111"/>
-      <c r="AB3" s="113"/>
-      <c r="AC3" s="150" t="str">
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="130"/>
+      <c r="N3" s="131"/>
+      <c r="O3" s="172"/>
+      <c r="P3" s="173"/>
+      <c r="Q3" s="173"/>
+      <c r="R3" s="174"/>
+      <c r="S3" s="187"/>
+      <c r="T3" s="188"/>
+      <c r="U3" s="188"/>
+      <c r="V3" s="188"/>
+      <c r="W3" s="188"/>
+      <c r="X3" s="188"/>
+      <c r="Y3" s="188"/>
+      <c r="Z3" s="189"/>
+      <c r="AA3" s="163"/>
+      <c r="AB3" s="165"/>
+      <c r="AC3" s="111" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="151"/>
-      <c r="AE3" s="151"/>
-      <c r="AF3" s="152"/>
-      <c r="AG3" s="187" t="str">
+      <c r="AD3" s="112"/>
+      <c r="AE3" s="112"/>
+      <c r="AF3" s="113"/>
+      <c r="AG3" s="177" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="188"/>
-      <c r="AI3" s="189"/>
+      <c r="AH3" s="178"/>
+      <c r="AI3" s="179"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" s="61" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -7730,8 +7771,8 @@
       <c r="D8" s="201"/>
       <c r="E8" s="201"/>
       <c r="F8" s="202"/>
-      <c r="G8" s="128" t="s">
-        <v>123</v>
+      <c r="G8" s="135" t="s">
+        <v>121</v>
       </c>
       <c r="H8" s="203"/>
       <c r="I8" s="203"/>
@@ -7768,8 +7809,8 @@
       <c r="D9" s="205"/>
       <c r="E9" s="205"/>
       <c r="F9" s="206"/>
-      <c r="G9" s="128" t="s">
-        <v>124</v>
+      <c r="G9" s="135" t="s">
+        <v>122</v>
       </c>
       <c r="H9" s="201"/>
       <c r="I9" s="201"/>
@@ -7807,7 +7848,7 @@
       <c r="E10" s="192"/>
       <c r="F10" s="193"/>
       <c r="G10" s="102" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H10" s="63"/>
       <c r="I10" s="63"/>
@@ -7843,7 +7884,7 @@
       <c r="E11" s="195"/>
       <c r="F11" s="196"/>
       <c r="G11" s="103" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
@@ -7949,7 +7990,7 @@
       <c r="E14" s="190"/>
       <c r="F14" s="190"/>
       <c r="G14" s="69" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H14" s="70"/>
       <c r="I14" s="70"/>
@@ -8018,18 +8059,6 @@
     <row r="52" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C10:F13"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:AG8"/>
-    <mergeCell ref="G9:AG9"/>
-    <mergeCell ref="C9:F9"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -8041,6 +8070,18 @@
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C10:F13"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:AG8"/>
+    <mergeCell ref="G9:AG9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -8071,166 +8112,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="275" t="s">
+      <c r="A1" s="221" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="276"/>
-      <c r="C1" s="276"/>
-      <c r="D1" s="277"/>
-      <c r="E1" s="186" t="str">
+      <c r="B1" s="222"/>
+      <c r="C1" s="222"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="164"/>
-      <c r="O1" s="114" t="s">
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="166" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="115"/>
-      <c r="Q1" s="115"/>
-      <c r="R1" s="116"/>
-      <c r="S1" s="177" t="str">
+      <c r="P1" s="167"/>
+      <c r="Q1" s="167"/>
+      <c r="R1" s="168"/>
+      <c r="S1" s="181" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10204/顧客選択</v>
       </c>
-      <c r="T1" s="178"/>
-      <c r="U1" s="178"/>
-      <c r="V1" s="178"/>
-      <c r="W1" s="178"/>
-      <c r="X1" s="178"/>
-      <c r="Y1" s="178"/>
-      <c r="Z1" s="179"/>
-      <c r="AA1" s="111" t="s">
+      <c r="T1" s="182"/>
+      <c r="U1" s="182"/>
+      <c r="V1" s="182"/>
+      <c r="W1" s="182"/>
+      <c r="X1" s="182"/>
+      <c r="Y1" s="182"/>
+      <c r="Z1" s="183"/>
+      <c r="AA1" s="163" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="113"/>
-      <c r="AC1" s="150" t="str">
+      <c r="AB1" s="165"/>
+      <c r="AC1" s="111" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="151"/>
-      <c r="AE1" s="151"/>
-      <c r="AF1" s="152"/>
-      <c r="AG1" s="187">
+      <c r="AD1" s="112"/>
+      <c r="AE1" s="112"/>
+      <c r="AF1" s="113"/>
+      <c r="AG1" s="177">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>44687</v>
       </c>
-      <c r="AH1" s="188"/>
-      <c r="AI1" s="189"/>
+      <c r="AH1" s="178"/>
+      <c r="AI1" s="179"/>
       <c r="AJ1" s="27"/>
     </row>
     <row r="2" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="275" t="s">
+      <c r="A2" s="221" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="276"/>
-      <c r="C2" s="276"/>
-      <c r="D2" s="277"/>
-      <c r="E2" s="186" t="str">
+      <c r="B2" s="222"/>
+      <c r="C2" s="222"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
-      <c r="L2" s="163"/>
-      <c r="M2" s="163"/>
-      <c r="N2" s="164"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="118"/>
-      <c r="Q2" s="118"/>
-      <c r="R2" s="119"/>
-      <c r="S2" s="180"/>
-      <c r="T2" s="181"/>
-      <c r="U2" s="181"/>
-      <c r="V2" s="181"/>
-      <c r="W2" s="181"/>
-      <c r="X2" s="181"/>
-      <c r="Y2" s="181"/>
-      <c r="Z2" s="182"/>
-      <c r="AA2" s="111" t="s">
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="131"/>
+      <c r="O2" s="169"/>
+      <c r="P2" s="170"/>
+      <c r="Q2" s="170"/>
+      <c r="R2" s="171"/>
+      <c r="S2" s="184"/>
+      <c r="T2" s="185"/>
+      <c r="U2" s="185"/>
+      <c r="V2" s="185"/>
+      <c r="W2" s="185"/>
+      <c r="X2" s="185"/>
+      <c r="Y2" s="185"/>
+      <c r="Z2" s="186"/>
+      <c r="AA2" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="113"/>
-      <c r="AC2" s="150" t="str">
+      <c r="AB2" s="165"/>
+      <c r="AC2" s="111" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="151"/>
-      <c r="AE2" s="151"/>
-      <c r="AF2" s="152"/>
-      <c r="AG2" s="187" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="112"/>
+      <c r="AE2" s="112"/>
+      <c r="AF2" s="113"/>
+      <c r="AG2" s="177">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
-      </c>
-      <c r="AH2" s="188"/>
-      <c r="AI2" s="189"/>
+        <v>44907</v>
+      </c>
+      <c r="AH2" s="178"/>
+      <c r="AI2" s="179"/>
       <c r="AJ2" s="27"/>
     </row>
     <row r="3" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="275" t="s">
+      <c r="A3" s="221" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="276"/>
-      <c r="C3" s="276"/>
-      <c r="D3" s="277"/>
-      <c r="E3" s="186" t="str">
+      <c r="B3" s="222"/>
+      <c r="C3" s="222"/>
+      <c r="D3" s="223"/>
+      <c r="E3" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="163"/>
-      <c r="M3" s="163"/>
-      <c r="N3" s="164"/>
-      <c r="O3" s="120"/>
-      <c r="P3" s="121"/>
-      <c r="Q3" s="121"/>
-      <c r="R3" s="122"/>
-      <c r="S3" s="183"/>
-      <c r="T3" s="184"/>
-      <c r="U3" s="184"/>
-      <c r="V3" s="184"/>
-      <c r="W3" s="184"/>
-      <c r="X3" s="184"/>
-      <c r="Y3" s="184"/>
-      <c r="Z3" s="185"/>
-      <c r="AA3" s="111"/>
-      <c r="AB3" s="113"/>
-      <c r="AC3" s="150" t="str">
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="130"/>
+      <c r="N3" s="131"/>
+      <c r="O3" s="172"/>
+      <c r="P3" s="173"/>
+      <c r="Q3" s="173"/>
+      <c r="R3" s="174"/>
+      <c r="S3" s="187"/>
+      <c r="T3" s="188"/>
+      <c r="U3" s="188"/>
+      <c r="V3" s="188"/>
+      <c r="W3" s="188"/>
+      <c r="X3" s="188"/>
+      <c r="Y3" s="188"/>
+      <c r="Z3" s="189"/>
+      <c r="AA3" s="163"/>
+      <c r="AB3" s="165"/>
+      <c r="AC3" s="111" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="151"/>
-      <c r="AE3" s="151"/>
-      <c r="AF3" s="152"/>
-      <c r="AG3" s="261" t="str">
+      <c r="AD3" s="112"/>
+      <c r="AE3" s="112"/>
+      <c r="AF3" s="113"/>
+      <c r="AG3" s="236" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="262"/>
-      <c r="AI3" s="263"/>
+      <c r="AH3" s="237"/>
+      <c r="AI3" s="238"/>
       <c r="AJ3" s="27"/>
     </row>
     <row r="4" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="26" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -8335,39 +8376,39 @@
       <c r="D34" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="268" t="s">
+      <c r="E34" s="257" t="s">
         <v>68</v>
       </c>
-      <c r="F34" s="268"/>
-      <c r="G34" s="268"/>
-      <c r="H34" s="268"/>
-      <c r="I34" s="268"/>
-      <c r="J34" s="268"/>
-      <c r="K34" s="268"/>
-      <c r="L34" s="268"/>
-      <c r="M34" s="268"/>
-      <c r="N34" s="268" t="s">
+      <c r="F34" s="257"/>
+      <c r="G34" s="257"/>
+      <c r="H34" s="257"/>
+      <c r="I34" s="257"/>
+      <c r="J34" s="257"/>
+      <c r="K34" s="257"/>
+      <c r="L34" s="257"/>
+      <c r="M34" s="257"/>
+      <c r="N34" s="257" t="s">
         <v>43</v>
       </c>
-      <c r="O34" s="268"/>
-      <c r="P34" s="268"/>
-      <c r="Q34" s="268" t="s">
+      <c r="O34" s="257"/>
+      <c r="P34" s="257"/>
+      <c r="Q34" s="257" t="s">
         <v>25</v>
       </c>
-      <c r="R34" s="268"/>
-      <c r="S34" s="268"/>
-      <c r="T34" s="268"/>
-      <c r="U34" s="268"/>
-      <c r="V34" s="268" t="s">
+      <c r="R34" s="257"/>
+      <c r="S34" s="257"/>
+      <c r="T34" s="257"/>
+      <c r="U34" s="257"/>
+      <c r="V34" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="W34" s="268"/>
-      <c r="X34" s="268"/>
-      <c r="Y34" s="268"/>
-      <c r="Z34" s="268"/>
-      <c r="AA34" s="268"/>
-      <c r="AB34" s="268"/>
-      <c r="AC34" s="268"/>
+      <c r="W34" s="257"/>
+      <c r="X34" s="257"/>
+      <c r="Y34" s="257"/>
+      <c r="Z34" s="257"/>
+      <c r="AA34" s="257"/>
+      <c r="AB34" s="257"/>
+      <c r="AC34" s="257"/>
       <c r="AD34" s="84"/>
       <c r="AE34" s="84"/>
       <c r="AF34" s="84"/>
@@ -8378,39 +8419,39 @@
       <c r="D35" s="98">
         <v>1</v>
       </c>
-      <c r="E35" s="269" t="s">
+      <c r="E35" s="258" t="s">
         <v>75</v>
       </c>
-      <c r="F35" s="270"/>
-      <c r="G35" s="270"/>
-      <c r="H35" s="270"/>
-      <c r="I35" s="270"/>
-      <c r="J35" s="270"/>
-      <c r="K35" s="270"/>
-      <c r="L35" s="270"/>
-      <c r="M35" s="270"/>
-      <c r="N35" s="270" t="s">
+      <c r="F35" s="259"/>
+      <c r="G35" s="259"/>
+      <c r="H35" s="259"/>
+      <c r="I35" s="259"/>
+      <c r="J35" s="259"/>
+      <c r="K35" s="259"/>
+      <c r="L35" s="259"/>
+      <c r="M35" s="259"/>
+      <c r="N35" s="259" t="s">
         <v>85</v>
       </c>
-      <c r="O35" s="270"/>
-      <c r="P35" s="270"/>
-      <c r="Q35" s="271" t="s">
+      <c r="O35" s="259"/>
+      <c r="P35" s="259"/>
+      <c r="Q35" s="260" t="s">
         <v>75</v>
       </c>
-      <c r="R35" s="272"/>
-      <c r="S35" s="272"/>
-      <c r="T35" s="272"/>
-      <c r="U35" s="272"/>
-      <c r="V35" s="271" t="s">
+      <c r="R35" s="261"/>
+      <c r="S35" s="261"/>
+      <c r="T35" s="261"/>
+      <c r="U35" s="261"/>
+      <c r="V35" s="260" t="s">
         <v>75</v>
       </c>
-      <c r="W35" s="272"/>
-      <c r="X35" s="272"/>
-      <c r="Y35" s="272"/>
-      <c r="Z35" s="272"/>
-      <c r="AA35" s="272"/>
-      <c r="AB35" s="272"/>
-      <c r="AC35" s="272"/>
+      <c r="W35" s="261"/>
+      <c r="X35" s="261"/>
+      <c r="Y35" s="261"/>
+      <c r="Z35" s="261"/>
+      <c r="AA35" s="261"/>
+      <c r="AB35" s="261"/>
+      <c r="AC35" s="261"/>
       <c r="AM35" s="29"/>
     </row>
     <row r="36" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8487,36 +8528,36 @@
       <c r="AZ39" s="78"/>
     </row>
     <row r="40" spans="3:53" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D40" s="264" t="s">
+      <c r="D40" s="242" t="s">
         <v>41</v>
       </c>
-      <c r="E40" s="216" t="s">
+      <c r="E40" s="254" t="s">
         <v>29</v>
       </c>
-      <c r="F40" s="217"/>
-      <c r="G40" s="217"/>
-      <c r="H40" s="217"/>
-      <c r="I40" s="217"/>
-      <c r="J40" s="217"/>
-      <c r="K40" s="217"/>
-      <c r="L40" s="217"/>
-      <c r="M40" s="217"/>
-      <c r="N40" s="217"/>
-      <c r="O40" s="217"/>
-      <c r="P40" s="217"/>
-      <c r="Q40" s="217"/>
-      <c r="R40" s="217"/>
-      <c r="S40" s="217"/>
-      <c r="T40" s="217"/>
-      <c r="U40" s="217"/>
-      <c r="V40" s="217"/>
-      <c r="W40" s="217"/>
-      <c r="X40" s="217"/>
-      <c r="Y40" s="217"/>
-      <c r="Z40" s="217"/>
-      <c r="AA40" s="217"/>
-      <c r="AB40" s="217"/>
-      <c r="AC40" s="218"/>
+      <c r="F40" s="255"/>
+      <c r="G40" s="255"/>
+      <c r="H40" s="255"/>
+      <c r="I40" s="255"/>
+      <c r="J40" s="255"/>
+      <c r="K40" s="255"/>
+      <c r="L40" s="255"/>
+      <c r="M40" s="255"/>
+      <c r="N40" s="255"/>
+      <c r="O40" s="255"/>
+      <c r="P40" s="255"/>
+      <c r="Q40" s="255"/>
+      <c r="R40" s="255"/>
+      <c r="S40" s="255"/>
+      <c r="T40" s="255"/>
+      <c r="U40" s="255"/>
+      <c r="V40" s="255"/>
+      <c r="W40" s="255"/>
+      <c r="X40" s="255"/>
+      <c r="Y40" s="255"/>
+      <c r="Z40" s="255"/>
+      <c r="AA40" s="255"/>
+      <c r="AB40" s="255"/>
+      <c r="AC40" s="256"/>
       <c r="AD40" s="191" t="s">
         <v>33</v>
       </c>
@@ -8534,20 +8575,20 @@
       <c r="AN40" s="78"/>
     </row>
     <row r="41" spans="3:53" s="61" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D41" s="265"/>
+      <c r="D41" s="243"/>
       <c r="E41" s="191" t="s">
         <v>31</v>
       </c>
       <c r="F41" s="192"/>
       <c r="G41" s="192"/>
       <c r="H41" s="193"/>
-      <c r="I41" s="267" t="s">
+      <c r="I41" s="248" t="s">
         <v>39</v>
       </c>
       <c r="J41" s="249"/>
       <c r="K41" s="249"/>
       <c r="L41" s="250"/>
-      <c r="M41" s="248" t="s">
+      <c r="M41" s="263" t="s">
         <v>101</v>
       </c>
       <c r="N41" s="249"/>
@@ -8569,7 +8610,7 @@
       </c>
       <c r="AA41" s="192"/>
       <c r="AB41" s="193"/>
-      <c r="AC41" s="264" t="s">
+      <c r="AC41" s="242" t="s">
         <v>44</v>
       </c>
       <c r="AD41" s="194"/>
@@ -8591,7 +8632,7 @@
       <c r="AT41" s="78"/>
     </row>
     <row r="42" spans="3:53" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D42" s="266"/>
+      <c r="D42" s="244"/>
       <c r="E42" s="197"/>
       <c r="F42" s="198"/>
       <c r="G42" s="198"/>
@@ -8616,7 +8657,7 @@
       <c r="Z42" s="197"/>
       <c r="AA42" s="198"/>
       <c r="AB42" s="199"/>
-      <c r="AC42" s="266"/>
+      <c r="AC42" s="244"/>
       <c r="AD42" s="197"/>
       <c r="AE42" s="198"/>
       <c r="AF42" s="198"/>
@@ -8625,7 +8666,7 @@
       <c r="AI42" s="78"/>
       <c r="AJ42" s="78"/>
       <c r="AK42" s="78"/>
-      <c r="AL42" s="247" t="s">
+      <c r="AL42" s="262" t="s">
         <v>40</v>
       </c>
       <c r="AM42" s="208"/>
@@ -8638,44 +8679,44 @@
       <c r="AT42" s="78"/>
     </row>
     <row r="43" spans="3:53" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D43" s="257" t="s">
-        <v>127</v>
-      </c>
-      <c r="E43" s="258"/>
-      <c r="F43" s="258"/>
-      <c r="G43" s="258"/>
-      <c r="H43" s="258"/>
-      <c r="I43" s="258"/>
-      <c r="J43" s="258"/>
-      <c r="K43" s="258"/>
-      <c r="L43" s="258"/>
-      <c r="M43" s="258"/>
-      <c r="N43" s="258"/>
-      <c r="O43" s="258"/>
-      <c r="P43" s="258"/>
-      <c r="Q43" s="258"/>
-      <c r="R43" s="258"/>
-      <c r="S43" s="258"/>
-      <c r="T43" s="258"/>
-      <c r="U43" s="258"/>
-      <c r="V43" s="258"/>
-      <c r="W43" s="258"/>
-      <c r="X43" s="258"/>
-      <c r="Y43" s="258"/>
-      <c r="Z43" s="258"/>
-      <c r="AA43" s="258"/>
-      <c r="AB43" s="258"/>
-      <c r="AC43" s="258"/>
-      <c r="AD43" s="258"/>
-      <c r="AE43" s="258"/>
-      <c r="AF43" s="258"/>
-      <c r="AG43" s="259"/>
+      <c r="D43" s="239" t="s">
+        <v>125</v>
+      </c>
+      <c r="E43" s="240"/>
+      <c r="F43" s="240"/>
+      <c r="G43" s="240"/>
+      <c r="H43" s="240"/>
+      <c r="I43" s="240"/>
+      <c r="J43" s="240"/>
+      <c r="K43" s="240"/>
+      <c r="L43" s="240"/>
+      <c r="M43" s="240"/>
+      <c r="N43" s="240"/>
+      <c r="O43" s="240"/>
+      <c r="P43" s="240"/>
+      <c r="Q43" s="240"/>
+      <c r="R43" s="240"/>
+      <c r="S43" s="240"/>
+      <c r="T43" s="240"/>
+      <c r="U43" s="240"/>
+      <c r="V43" s="240"/>
+      <c r="W43" s="240"/>
+      <c r="X43" s="240"/>
+      <c r="Y43" s="240"/>
+      <c r="Z43" s="240"/>
+      <c r="AA43" s="240"/>
+      <c r="AB43" s="240"/>
+      <c r="AC43" s="240"/>
+      <c r="AD43" s="240"/>
+      <c r="AE43" s="240"/>
+      <c r="AF43" s="240"/>
+      <c r="AG43" s="241"/>
       <c r="AH43" s="78"/>
       <c r="AI43" s="78"/>
       <c r="AJ43" s="78"/>
       <c r="AK43" s="78"/>
       <c r="AL43" s="108" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AM43" s="106"/>
       <c r="AN43" s="106"/>
@@ -8690,63 +8731,63 @@
       <c r="D44" s="87">
         <v>1</v>
       </c>
-      <c r="E44" s="128" t="s">
-        <v>131</v>
+      <c r="E44" s="135" t="s">
+        <v>129</v>
       </c>
       <c r="F44" s="203"/>
       <c r="G44" s="203"/>
-      <c r="H44" s="210"/>
-      <c r="I44" s="260" t="s">
+      <c r="H44" s="264"/>
+      <c r="I44" s="271" t="s">
         <v>84</v>
       </c>
-      <c r="J44" s="260"/>
-      <c r="K44" s="260"/>
-      <c r="L44" s="260"/>
-      <c r="M44" s="254" t="s">
+      <c r="J44" s="271"/>
+      <c r="K44" s="271"/>
+      <c r="L44" s="271"/>
+      <c r="M44" s="245" t="s">
         <v>75</v>
       </c>
-      <c r="N44" s="255"/>
-      <c r="O44" s="255"/>
-      <c r="P44" s="255"/>
-      <c r="Q44" s="255"/>
-      <c r="R44" s="255"/>
-      <c r="S44" s="255"/>
-      <c r="T44" s="256"/>
-      <c r="U44" s="240" t="s">
+      <c r="N44" s="246"/>
+      <c r="O44" s="246"/>
+      <c r="P44" s="246"/>
+      <c r="Q44" s="246"/>
+      <c r="R44" s="246"/>
+      <c r="S44" s="246"/>
+      <c r="T44" s="247"/>
+      <c r="U44" s="218" t="s">
         <v>75</v>
       </c>
-      <c r="V44" s="241"/>
-      <c r="W44" s="241"/>
-      <c r="X44" s="241"/>
-      <c r="Y44" s="242"/>
-      <c r="Z44" s="240" t="s">
+      <c r="V44" s="213"/>
+      <c r="W44" s="213"/>
+      <c r="X44" s="213"/>
+      <c r="Y44" s="214"/>
+      <c r="Z44" s="218" t="s">
         <v>75</v>
       </c>
-      <c r="AA44" s="241"/>
-      <c r="AB44" s="242"/>
+      <c r="AA44" s="213"/>
+      <c r="AB44" s="214"/>
       <c r="AC44" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="AD44" s="240" t="s">
+      <c r="AD44" s="289" t="s">
+        <v>172</v>
+      </c>
+      <c r="AE44" s="213"/>
+      <c r="AF44" s="213"/>
+      <c r="AG44" s="214"/>
+      <c r="AL44" s="135" t="s">
+        <v>164</v>
+      </c>
+      <c r="AM44" s="203" t="s">
         <v>112</v>
       </c>
-      <c r="AE44" s="241"/>
-      <c r="AF44" s="241"/>
-      <c r="AG44" s="242"/>
-      <c r="AL44" s="128" t="s">
-        <v>166</v>
-      </c>
-      <c r="AM44" s="203" t="s">
-        <v>114</v>
-      </c>
       <c r="AN44" s="203" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AO44" s="203" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP44" s="210" t="s">
-        <v>114</v>
+        <v>112</v>
+      </c>
+      <c r="AP44" s="264" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="3:53" s="62" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8754,104 +8795,104 @@
         <f>D44+1</f>
         <v>2</v>
       </c>
-      <c r="E45" s="128" t="s">
-        <v>132</v>
+      <c r="E45" s="135" t="s">
+        <v>130</v>
       </c>
       <c r="F45" s="203"/>
       <c r="G45" s="203"/>
-      <c r="H45" s="210"/>
-      <c r="I45" s="243" t="s">
+      <c r="H45" s="264"/>
+      <c r="I45" s="265" t="s">
         <v>83</v>
       </c>
-      <c r="J45" s="243"/>
-      <c r="K45" s="243"/>
-      <c r="L45" s="243"/>
-      <c r="M45" s="254" t="s">
-        <v>116</v>
-      </c>
-      <c r="N45" s="255"/>
-      <c r="O45" s="255"/>
-      <c r="P45" s="255"/>
-      <c r="Q45" s="255"/>
-      <c r="R45" s="255"/>
-      <c r="S45" s="255"/>
-      <c r="T45" s="256"/>
-      <c r="U45" s="125" t="s">
-        <v>133</v>
-      </c>
-      <c r="V45" s="126"/>
-      <c r="W45" s="126"/>
-      <c r="X45" s="126"/>
-      <c r="Y45" s="127"/>
-      <c r="Z45" s="125" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA45" s="126"/>
-      <c r="AB45" s="127"/>
+      <c r="J45" s="265"/>
+      <c r="K45" s="265"/>
+      <c r="L45" s="265"/>
+      <c r="M45" s="245" t="s">
+        <v>114</v>
+      </c>
+      <c r="N45" s="246"/>
+      <c r="O45" s="246"/>
+      <c r="P45" s="246"/>
+      <c r="Q45" s="246"/>
+      <c r="R45" s="246"/>
+      <c r="S45" s="246"/>
+      <c r="T45" s="247"/>
+      <c r="U45" s="132" t="s">
+        <v>131</v>
+      </c>
+      <c r="V45" s="133"/>
+      <c r="W45" s="133"/>
+      <c r="X45" s="133"/>
+      <c r="Y45" s="134"/>
+      <c r="Z45" s="132" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA45" s="133"/>
+      <c r="AB45" s="134"/>
       <c r="AC45" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="AD45" s="240" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE45" s="241"/>
-      <c r="AF45" s="241"/>
-      <c r="AG45" s="242"/>
-      <c r="AL45" s="128" t="s">
-        <v>128</v>
+      <c r="AD45" s="289" t="s">
+        <v>173</v>
+      </c>
+      <c r="AE45" s="213"/>
+      <c r="AF45" s="213"/>
+      <c r="AG45" s="214"/>
+      <c r="AL45" s="135" t="s">
+        <v>126</v>
       </c>
       <c r="AM45" s="203" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AN45" s="203" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AO45" s="203" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP45" s="210" t="s">
-        <v>114</v>
+        <v>112</v>
+      </c>
+      <c r="AP45" s="264" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="46" spans="3:53" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D46" s="257" t="s">
-        <v>167</v>
-      </c>
-      <c r="E46" s="258"/>
-      <c r="F46" s="258"/>
-      <c r="G46" s="258"/>
-      <c r="H46" s="258"/>
-      <c r="I46" s="258"/>
-      <c r="J46" s="258"/>
-      <c r="K46" s="258"/>
-      <c r="L46" s="258"/>
-      <c r="M46" s="258"/>
-      <c r="N46" s="258"/>
-      <c r="O46" s="258"/>
-      <c r="P46" s="258"/>
-      <c r="Q46" s="258"/>
-      <c r="R46" s="258"/>
-      <c r="S46" s="258"/>
-      <c r="T46" s="258"/>
-      <c r="U46" s="258"/>
-      <c r="V46" s="258"/>
-      <c r="W46" s="258"/>
-      <c r="X46" s="258"/>
-      <c r="Y46" s="258"/>
-      <c r="Z46" s="258"/>
-      <c r="AA46" s="258"/>
-      <c r="AB46" s="258"/>
-      <c r="AC46" s="258"/>
-      <c r="AD46" s="258"/>
-      <c r="AE46" s="258"/>
-      <c r="AF46" s="258"/>
-      <c r="AG46" s="259"/>
+      <c r="D46" s="239" t="s">
+        <v>165</v>
+      </c>
+      <c r="E46" s="240"/>
+      <c r="F46" s="240"/>
+      <c r="G46" s="240"/>
+      <c r="H46" s="240"/>
+      <c r="I46" s="240"/>
+      <c r="J46" s="240"/>
+      <c r="K46" s="240"/>
+      <c r="L46" s="240"/>
+      <c r="M46" s="240"/>
+      <c r="N46" s="240"/>
+      <c r="O46" s="240"/>
+      <c r="P46" s="240"/>
+      <c r="Q46" s="240"/>
+      <c r="R46" s="240"/>
+      <c r="S46" s="240"/>
+      <c r="T46" s="240"/>
+      <c r="U46" s="240"/>
+      <c r="V46" s="240"/>
+      <c r="W46" s="240"/>
+      <c r="X46" s="240"/>
+      <c r="Y46" s="240"/>
+      <c r="Z46" s="240"/>
+      <c r="AA46" s="240"/>
+      <c r="AB46" s="240"/>
+      <c r="AC46" s="240"/>
+      <c r="AD46" s="240"/>
+      <c r="AE46" s="240"/>
+      <c r="AF46" s="240"/>
+      <c r="AG46" s="241"/>
       <c r="AH46" s="78"/>
       <c r="AI46" s="78"/>
       <c r="AJ46" s="78"/>
       <c r="AK46" s="78"/>
       <c r="AL46" s="108" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AM46" s="106"/>
       <c r="AN46" s="106"/>
@@ -8867,67 +8908,67 @@
         <f>D45+1</f>
         <v>3</v>
       </c>
-      <c r="E47" s="128" t="s">
-        <v>169</v>
+      <c r="E47" s="135" t="s">
+        <v>167</v>
       </c>
       <c r="F47" s="203"/>
       <c r="G47" s="203"/>
-      <c r="H47" s="210"/>
-      <c r="I47" s="243" t="s">
+      <c r="H47" s="264"/>
+      <c r="I47" s="265" t="s">
+        <v>168</v>
+      </c>
+      <c r="J47" s="265"/>
+      <c r="K47" s="265"/>
+      <c r="L47" s="265"/>
+      <c r="M47" s="266" t="s">
+        <v>133</v>
+      </c>
+      <c r="N47" s="267"/>
+      <c r="O47" s="267"/>
+      <c r="P47" s="267"/>
+      <c r="Q47" s="267"/>
+      <c r="R47" s="267"/>
+      <c r="S47" s="267"/>
+      <c r="T47" s="267"/>
+      <c r="U47" s="268" t="s">
         <v>170</v>
       </c>
-      <c r="J47" s="243"/>
-      <c r="K47" s="243"/>
-      <c r="L47" s="243"/>
-      <c r="M47" s="244" t="s">
-        <v>135</v>
-      </c>
-      <c r="N47" s="245"/>
-      <c r="O47" s="245"/>
-      <c r="P47" s="245"/>
-      <c r="Q47" s="245"/>
-      <c r="R47" s="245"/>
-      <c r="S47" s="245"/>
-      <c r="T47" s="245"/>
-      <c r="U47" s="246" t="s">
-        <v>172</v>
-      </c>
-      <c r="V47" s="220"/>
-      <c r="W47" s="220"/>
-      <c r="X47" s="220"/>
-      <c r="Y47" s="220"/>
-      <c r="Z47" s="219" t="s">
+      <c r="V47" s="269"/>
+      <c r="W47" s="269"/>
+      <c r="X47" s="269"/>
+      <c r="Y47" s="269"/>
+      <c r="Z47" s="270" t="s">
         <v>75</v>
       </c>
-      <c r="AA47" s="220"/>
-      <c r="AB47" s="220"/>
+      <c r="AA47" s="269"/>
+      <c r="AB47" s="269"/>
       <c r="AC47" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="AD47" s="125" t="s">
+      <c r="AD47" s="132" t="s">
         <v>75</v>
       </c>
-      <c r="AE47" s="241"/>
-      <c r="AF47" s="241"/>
-      <c r="AG47" s="242"/>
+      <c r="AE47" s="213"/>
+      <c r="AF47" s="213"/>
+      <c r="AG47" s="214"/>
       <c r="AH47" s="78"/>
       <c r="AI47" s="78"/>
       <c r="AJ47" s="78"/>
       <c r="AK47" s="78"/>
-      <c r="AL47" s="128" t="s">
-        <v>171</v>
+      <c r="AL47" s="135" t="s">
+        <v>169</v>
       </c>
       <c r="AM47" s="203" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AN47" s="203" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AO47" s="203" t="s">
-        <v>113</v>
-      </c>
-      <c r="AP47" s="210" t="s">
-        <v>113</v>
+        <v>111</v>
+      </c>
+      <c r="AP47" s="264" t="s">
+        <v>111</v>
       </c>
       <c r="AQ47" s="78"/>
       <c r="AR47" s="78"/>
@@ -8939,67 +8980,67 @@
         <f>D47+1</f>
         <v>4</v>
       </c>
-      <c r="E48" s="128" t="s">
-        <v>130</v>
+      <c r="E48" s="135" t="s">
+        <v>128</v>
       </c>
       <c r="F48" s="203"/>
       <c r="G48" s="203"/>
-      <c r="H48" s="210"/>
-      <c r="I48" s="243" t="s">
+      <c r="H48" s="264"/>
+      <c r="I48" s="265" t="s">
         <v>83</v>
       </c>
-      <c r="J48" s="243"/>
-      <c r="K48" s="243"/>
-      <c r="L48" s="243"/>
-      <c r="M48" s="244" t="s">
-        <v>135</v>
-      </c>
-      <c r="N48" s="245"/>
-      <c r="O48" s="245"/>
-      <c r="P48" s="245"/>
-      <c r="Q48" s="245"/>
-      <c r="R48" s="245"/>
-      <c r="S48" s="245"/>
-      <c r="T48" s="245"/>
-      <c r="U48" s="246" t="s">
+      <c r="J48" s="265"/>
+      <c r="K48" s="265"/>
+      <c r="L48" s="265"/>
+      <c r="M48" s="266" t="s">
+        <v>133</v>
+      </c>
+      <c r="N48" s="267"/>
+      <c r="O48" s="267"/>
+      <c r="P48" s="267"/>
+      <c r="Q48" s="267"/>
+      <c r="R48" s="267"/>
+      <c r="S48" s="267"/>
+      <c r="T48" s="267"/>
+      <c r="U48" s="268" t="s">
+        <v>134</v>
+      </c>
+      <c r="V48" s="269"/>
+      <c r="W48" s="269"/>
+      <c r="X48" s="269"/>
+      <c r="Y48" s="269"/>
+      <c r="Z48" s="270" t="s">
         <v>136</v>
       </c>
-      <c r="V48" s="220"/>
-      <c r="W48" s="220"/>
-      <c r="X48" s="220"/>
-      <c r="Y48" s="220"/>
-      <c r="Z48" s="219" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA48" s="220"/>
-      <c r="AB48" s="220"/>
+      <c r="AA48" s="269"/>
+      <c r="AB48" s="269"/>
       <c r="AC48" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="AD48" s="125" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE48" s="241"/>
-      <c r="AF48" s="241"/>
-      <c r="AG48" s="242"/>
+      <c r="AD48" s="132" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE48" s="213"/>
+      <c r="AF48" s="213"/>
+      <c r="AG48" s="214"/>
       <c r="AH48" s="78"/>
       <c r="AI48" s="78"/>
       <c r="AJ48" s="78"/>
       <c r="AK48" s="78"/>
-      <c r="AL48" s="128" t="s">
-        <v>137</v>
+      <c r="AL48" s="135" t="s">
+        <v>135</v>
       </c>
       <c r="AM48" s="203" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AN48" s="203" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AO48" s="203" t="s">
-        <v>113</v>
-      </c>
-      <c r="AP48" s="210" t="s">
-        <v>113</v>
+        <v>111</v>
+      </c>
+      <c r="AP48" s="264" t="s">
+        <v>111</v>
       </c>
       <c r="AQ48" s="78"/>
       <c r="AR48" s="78"/>
@@ -9087,24 +9128,24 @@
       <c r="AJ52" s="81"/>
     </row>
     <row r="53" spans="3:37" x14ac:dyDescent="0.15">
-      <c r="D53" s="280" t="s">
+      <c r="D53" s="228" t="s">
         <v>100</v>
       </c>
-      <c r="E53" s="232" t="s">
+      <c r="E53" s="230" t="s">
         <v>49</v>
       </c>
-      <c r="F53" s="233"/>
-      <c r="G53" s="233"/>
-      <c r="H53" s="233"/>
-      <c r="I53" s="233"/>
-      <c r="J53" s="234"/>
-      <c r="K53" s="232" t="s">
+      <c r="F53" s="231"/>
+      <c r="G53" s="231"/>
+      <c r="H53" s="231"/>
+      <c r="I53" s="231"/>
+      <c r="J53" s="232"/>
+      <c r="K53" s="230" t="s">
         <v>50</v>
       </c>
-      <c r="L53" s="233"/>
-      <c r="M53" s="233"/>
-      <c r="N53" s="234"/>
-      <c r="O53" s="230" t="s">
+      <c r="L53" s="231"/>
+      <c r="M53" s="231"/>
+      <c r="N53" s="232"/>
+      <c r="O53" s="285" t="s">
         <v>51</v>
       </c>
       <c r="P53" s="88" t="s">
@@ -9115,35 +9156,35 @@
       <c r="S53" s="89"/>
       <c r="T53" s="89"/>
       <c r="U53" s="89"/>
-      <c r="V53" s="232" t="s">
+      <c r="V53" s="230" t="s">
         <v>30</v>
       </c>
-      <c r="W53" s="233"/>
-      <c r="X53" s="233"/>
-      <c r="Y53" s="233"/>
-      <c r="Z53" s="233"/>
-      <c r="AA53" s="233"/>
-      <c r="AB53" s="233"/>
-      <c r="AC53" s="233"/>
-      <c r="AD53" s="233"/>
-      <c r="AE53" s="233"/>
-      <c r="AF53" s="233"/>
-      <c r="AG53" s="233"/>
-      <c r="AH53" s="234"/>
+      <c r="W53" s="231"/>
+      <c r="X53" s="231"/>
+      <c r="Y53" s="231"/>
+      <c r="Z53" s="231"/>
+      <c r="AA53" s="231"/>
+      <c r="AB53" s="231"/>
+      <c r="AC53" s="231"/>
+      <c r="AD53" s="231"/>
+      <c r="AE53" s="231"/>
+      <c r="AF53" s="231"/>
+      <c r="AG53" s="231"/>
+      <c r="AH53" s="232"/>
     </row>
     <row r="54" spans="3:37" x14ac:dyDescent="0.15">
-      <c r="D54" s="281"/>
-      <c r="E54" s="235"/>
-      <c r="F54" s="236"/>
-      <c r="G54" s="236"/>
-      <c r="H54" s="236"/>
-      <c r="I54" s="236"/>
-      <c r="J54" s="237"/>
-      <c r="K54" s="235"/>
-      <c r="L54" s="236"/>
-      <c r="M54" s="236"/>
-      <c r="N54" s="237"/>
-      <c r="O54" s="231"/>
+      <c r="D54" s="229"/>
+      <c r="E54" s="233"/>
+      <c r="F54" s="234"/>
+      <c r="G54" s="234"/>
+      <c r="H54" s="234"/>
+      <c r="I54" s="234"/>
+      <c r="J54" s="235"/>
+      <c r="K54" s="233"/>
+      <c r="L54" s="234"/>
+      <c r="M54" s="234"/>
+      <c r="N54" s="235"/>
+      <c r="O54" s="286"/>
       <c r="P54" s="90" t="s">
         <v>52</v>
       </c>
@@ -9156,42 +9197,42 @@
       <c r="S54" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="T54" s="238" t="s">
+      <c r="T54" s="287" t="s">
         <v>59</v>
       </c>
-      <c r="U54" s="239"/>
-      <c r="V54" s="235"/>
-      <c r="W54" s="236"/>
-      <c r="X54" s="236"/>
-      <c r="Y54" s="236"/>
-      <c r="Z54" s="236"/>
-      <c r="AA54" s="236"/>
-      <c r="AB54" s="236"/>
-      <c r="AC54" s="236"/>
-      <c r="AD54" s="236"/>
-      <c r="AE54" s="236"/>
-      <c r="AF54" s="236"/>
-      <c r="AG54" s="236"/>
-      <c r="AH54" s="237"/>
+      <c r="U54" s="288"/>
+      <c r="V54" s="233"/>
+      <c r="W54" s="234"/>
+      <c r="X54" s="234"/>
+      <c r="Y54" s="234"/>
+      <c r="Z54" s="234"/>
+      <c r="AA54" s="234"/>
+      <c r="AB54" s="234"/>
+      <c r="AC54" s="234"/>
+      <c r="AD54" s="234"/>
+      <c r="AE54" s="234"/>
+      <c r="AF54" s="234"/>
+      <c r="AG54" s="234"/>
+      <c r="AH54" s="235"/>
     </row>
     <row r="55" spans="3:37" x14ac:dyDescent="0.15">
       <c r="D55" s="91">
         <v>1</v>
       </c>
-      <c r="E55" s="227" t="s">
+      <c r="E55" s="282" t="s">
         <v>75</v>
       </c>
-      <c r="F55" s="228"/>
-      <c r="G55" s="228"/>
-      <c r="H55" s="228"/>
-      <c r="I55" s="228"/>
-      <c r="J55" s="229"/>
-      <c r="K55" s="240" t="s">
+      <c r="F55" s="283"/>
+      <c r="G55" s="283"/>
+      <c r="H55" s="283"/>
+      <c r="I55" s="283"/>
+      <c r="J55" s="284"/>
+      <c r="K55" s="218" t="s">
         <v>85</v>
       </c>
-      <c r="L55" s="241"/>
-      <c r="M55" s="241"/>
-      <c r="N55" s="242"/>
+      <c r="L55" s="213"/>
+      <c r="M55" s="213"/>
+      <c r="N55" s="214"/>
       <c r="O55" s="86" t="s">
         <v>86</v>
       </c>
@@ -9207,25 +9248,25 @@
       <c r="S55" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="T55" s="273" t="s">
+      <c r="T55" s="219" t="s">
         <v>85</v>
       </c>
-      <c r="U55" s="274"/>
-      <c r="V55" s="240" t="s">
+      <c r="U55" s="220"/>
+      <c r="V55" s="218" t="s">
         <v>87</v>
       </c>
-      <c r="W55" s="241"/>
-      <c r="X55" s="241"/>
-      <c r="Y55" s="241"/>
-      <c r="Z55" s="241"/>
-      <c r="AA55" s="241"/>
-      <c r="AB55" s="241"/>
-      <c r="AC55" s="241"/>
-      <c r="AD55" s="241"/>
-      <c r="AE55" s="241"/>
-      <c r="AF55" s="241"/>
-      <c r="AG55" s="241"/>
-      <c r="AH55" s="242"/>
+      <c r="W55" s="213"/>
+      <c r="X55" s="213"/>
+      <c r="Y55" s="213"/>
+      <c r="Z55" s="213"/>
+      <c r="AA55" s="213"/>
+      <c r="AB55" s="213"/>
+      <c r="AC55" s="213"/>
+      <c r="AD55" s="213"/>
+      <c r="AE55" s="213"/>
+      <c r="AF55" s="213"/>
+      <c r="AG55" s="213"/>
+      <c r="AH55" s="214"/>
     </row>
     <row r="56" spans="3:37" x14ac:dyDescent="0.15">
       <c r="D56" s="83"/>
@@ -9303,181 +9344,181 @@
       <c r="D60" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="E60" s="278" t="s">
+      <c r="E60" s="224" t="s">
         <v>70</v>
       </c>
-      <c r="F60" s="211"/>
-      <c r="G60" s="211"/>
-      <c r="H60" s="211"/>
-      <c r="I60" s="211"/>
-      <c r="J60" s="279"/>
-      <c r="K60" s="278" t="s">
+      <c r="F60" s="225"/>
+      <c r="G60" s="225"/>
+      <c r="H60" s="225"/>
+      <c r="I60" s="225"/>
+      <c r="J60" s="226"/>
+      <c r="K60" s="224" t="s">
         <v>38</v>
       </c>
-      <c r="L60" s="211"/>
-      <c r="M60" s="211"/>
-      <c r="N60" s="211"/>
-      <c r="O60" s="211"/>
-      <c r="P60" s="211"/>
-      <c r="Q60" s="212"/>
+      <c r="L60" s="225"/>
+      <c r="M60" s="225"/>
+      <c r="N60" s="225"/>
+      <c r="O60" s="225"/>
+      <c r="P60" s="225"/>
+      <c r="Q60" s="227"/>
       <c r="R60" s="200" t="s">
         <v>71</v>
       </c>
-      <c r="S60" s="211"/>
-      <c r="T60" s="211"/>
-      <c r="U60" s="211"/>
-      <c r="V60" s="211"/>
-      <c r="W60" s="211"/>
-      <c r="X60" s="211"/>
-      <c r="Y60" s="212"/>
-      <c r="Z60" s="216" t="s">
+      <c r="S60" s="225"/>
+      <c r="T60" s="225"/>
+      <c r="U60" s="225"/>
+      <c r="V60" s="225"/>
+      <c r="W60" s="225"/>
+      <c r="X60" s="225"/>
+      <c r="Y60" s="227"/>
+      <c r="Z60" s="254" t="s">
         <v>26</v>
       </c>
-      <c r="AA60" s="217"/>
-      <c r="AB60" s="217"/>
-      <c r="AC60" s="217"/>
-      <c r="AD60" s="218"/>
-      <c r="AE60" s="213" t="s">
+      <c r="AA60" s="255"/>
+      <c r="AB60" s="255"/>
+      <c r="AC60" s="255"/>
+      <c r="AD60" s="256"/>
+      <c r="AE60" s="273" t="s">
         <v>108</v>
       </c>
-      <c r="AF60" s="214"/>
-      <c r="AG60" s="214"/>
-      <c r="AH60" s="215"/>
+      <c r="AF60" s="274"/>
+      <c r="AG60" s="274"/>
+      <c r="AH60" s="275"/>
     </row>
     <row r="61" spans="3:37" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D61" s="87">
         <v>1</v>
       </c>
-      <c r="E61" s="240" t="s">
+      <c r="E61" s="218" t="s">
         <v>88</v>
       </c>
-      <c r="F61" s="241"/>
-      <c r="G61" s="241"/>
-      <c r="H61" s="241"/>
-      <c r="I61" s="241"/>
-      <c r="J61" s="242"/>
-      <c r="K61" s="240" t="s">
+      <c r="F61" s="213"/>
+      <c r="G61" s="213"/>
+      <c r="H61" s="213"/>
+      <c r="I61" s="213"/>
+      <c r="J61" s="214"/>
+      <c r="K61" s="218" t="s">
         <v>89</v>
       </c>
-      <c r="L61" s="241"/>
-      <c r="M61" s="241"/>
-      <c r="N61" s="241"/>
-      <c r="O61" s="241"/>
-      <c r="P61" s="241"/>
-      <c r="Q61" s="242"/>
-      <c r="R61" s="125" t="s">
-        <v>139</v>
-      </c>
-      <c r="S61" s="241"/>
-      <c r="T61" s="241"/>
-      <c r="U61" s="241"/>
-      <c r="V61" s="241"/>
-      <c r="W61" s="241"/>
-      <c r="X61" s="241"/>
-      <c r="Y61" s="242"/>
-      <c r="Z61" s="240" t="s">
+      <c r="L61" s="213"/>
+      <c r="M61" s="213"/>
+      <c r="N61" s="213"/>
+      <c r="O61" s="213"/>
+      <c r="P61" s="213"/>
+      <c r="Q61" s="214"/>
+      <c r="R61" s="132" t="s">
+        <v>137</v>
+      </c>
+      <c r="S61" s="213"/>
+      <c r="T61" s="213"/>
+      <c r="U61" s="213"/>
+      <c r="V61" s="213"/>
+      <c r="W61" s="213"/>
+      <c r="X61" s="213"/>
+      <c r="Y61" s="214"/>
+      <c r="Z61" s="218" t="s">
         <v>87</v>
       </c>
-      <c r="AA61" s="241"/>
-      <c r="AB61" s="241"/>
-      <c r="AC61" s="241"/>
-      <c r="AD61" s="242"/>
-      <c r="AE61" s="286" t="s">
-        <v>140</v>
-      </c>
-      <c r="AF61" s="287"/>
-      <c r="AG61" s="287"/>
-      <c r="AH61" s="288"/>
+      <c r="AA61" s="213"/>
+      <c r="AB61" s="213"/>
+      <c r="AC61" s="213"/>
+      <c r="AD61" s="214"/>
+      <c r="AE61" s="215" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF61" s="216"/>
+      <c r="AG61" s="216"/>
+      <c r="AH61" s="217"/>
     </row>
     <row r="62" spans="3:37" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D62" s="87">
         <v>2</v>
       </c>
-      <c r="E62" s="125" t="s">
-        <v>142</v>
-      </c>
-      <c r="F62" s="241"/>
-      <c r="G62" s="241"/>
-      <c r="H62" s="241"/>
-      <c r="I62" s="241"/>
-      <c r="J62" s="242"/>
-      <c r="K62" s="125" t="s">
-        <v>118</v>
-      </c>
-      <c r="L62" s="241"/>
-      <c r="M62" s="241"/>
-      <c r="N62" s="241"/>
-      <c r="O62" s="241"/>
-      <c r="P62" s="241"/>
-      <c r="Q62" s="242"/>
-      <c r="R62" s="125" t="s">
-        <v>143</v>
-      </c>
-      <c r="S62" s="241"/>
-      <c r="T62" s="241"/>
-      <c r="U62" s="241"/>
-      <c r="V62" s="241"/>
-      <c r="W62" s="241"/>
-      <c r="X62" s="241"/>
-      <c r="Y62" s="242"/>
-      <c r="Z62" s="125" t="s">
+      <c r="E62" s="132" t="s">
+        <v>140</v>
+      </c>
+      <c r="F62" s="213"/>
+      <c r="G62" s="213"/>
+      <c r="H62" s="213"/>
+      <c r="I62" s="213"/>
+      <c r="J62" s="214"/>
+      <c r="K62" s="132" t="s">
+        <v>116</v>
+      </c>
+      <c r="L62" s="213"/>
+      <c r="M62" s="213"/>
+      <c r="N62" s="213"/>
+      <c r="O62" s="213"/>
+      <c r="P62" s="213"/>
+      <c r="Q62" s="214"/>
+      <c r="R62" s="132" t="s">
+        <v>141</v>
+      </c>
+      <c r="S62" s="213"/>
+      <c r="T62" s="213"/>
+      <c r="U62" s="213"/>
+      <c r="V62" s="213"/>
+      <c r="W62" s="213"/>
+      <c r="X62" s="213"/>
+      <c r="Y62" s="214"/>
+      <c r="Z62" s="132" t="s">
         <v>75</v>
       </c>
-      <c r="AA62" s="241"/>
-      <c r="AB62" s="241"/>
-      <c r="AC62" s="241"/>
-      <c r="AD62" s="242"/>
-      <c r="AE62" s="286" t="s">
+      <c r="AA62" s="213"/>
+      <c r="AB62" s="213"/>
+      <c r="AC62" s="213"/>
+      <c r="AD62" s="214"/>
+      <c r="AE62" s="215" t="s">
         <v>72</v>
       </c>
-      <c r="AF62" s="287"/>
-      <c r="AG62" s="287"/>
-      <c r="AH62" s="288"/>
+      <c r="AF62" s="216"/>
+      <c r="AG62" s="216"/>
+      <c r="AH62" s="217"/>
     </row>
     <row r="63" spans="3:37" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D63" s="87">
         <v>3</v>
       </c>
-      <c r="E63" s="125" t="s">
+      <c r="E63" s="132" t="s">
+        <v>142</v>
+      </c>
+      <c r="F63" s="213"/>
+      <c r="G63" s="213"/>
+      <c r="H63" s="213"/>
+      <c r="I63" s="213"/>
+      <c r="J63" s="214"/>
+      <c r="K63" s="132" t="s">
+        <v>143</v>
+      </c>
+      <c r="L63" s="213"/>
+      <c r="M63" s="213"/>
+      <c r="N63" s="213"/>
+      <c r="O63" s="213"/>
+      <c r="P63" s="213"/>
+      <c r="Q63" s="214"/>
+      <c r="R63" s="132" t="s">
         <v>144</v>
       </c>
-      <c r="F63" s="241"/>
-      <c r="G63" s="241"/>
-      <c r="H63" s="241"/>
-      <c r="I63" s="241"/>
-      <c r="J63" s="242"/>
-      <c r="K63" s="125" t="s">
+      <c r="S63" s="213"/>
+      <c r="T63" s="213"/>
+      <c r="U63" s="213"/>
+      <c r="V63" s="213"/>
+      <c r="W63" s="213"/>
+      <c r="X63" s="213"/>
+      <c r="Y63" s="214"/>
+      <c r="Z63" s="132" t="s">
         <v>145</v>
       </c>
-      <c r="L63" s="241"/>
-      <c r="M63" s="241"/>
-      <c r="N63" s="241"/>
-      <c r="O63" s="241"/>
-      <c r="P63" s="241"/>
-      <c r="Q63" s="242"/>
-      <c r="R63" s="125" t="s">
-        <v>146</v>
-      </c>
-      <c r="S63" s="241"/>
-      <c r="T63" s="241"/>
-      <c r="U63" s="241"/>
-      <c r="V63" s="241"/>
-      <c r="W63" s="241"/>
-      <c r="X63" s="241"/>
-      <c r="Y63" s="242"/>
-      <c r="Z63" s="125" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA63" s="241"/>
-      <c r="AB63" s="241"/>
-      <c r="AC63" s="241"/>
-      <c r="AD63" s="242"/>
-      <c r="AE63" s="286" t="s">
-        <v>140</v>
-      </c>
-      <c r="AF63" s="287"/>
-      <c r="AG63" s="287"/>
-      <c r="AH63" s="288"/>
+      <c r="AA63" s="213"/>
+      <c r="AB63" s="213"/>
+      <c r="AC63" s="213"/>
+      <c r="AD63" s="214"/>
+      <c r="AE63" s="215" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF63" s="216"/>
+      <c r="AG63" s="216"/>
+      <c r="AH63" s="217"/>
     </row>
     <row r="64" spans="3:37" x14ac:dyDescent="0.15">
       <c r="D64" s="80"/>
@@ -9593,7 +9634,7 @@
     </row>
     <row r="74" spans="3:58" x14ac:dyDescent="0.15">
       <c r="E74" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AJ74" s="73"/>
       <c r="AK74" s="73"/>
@@ -9647,7 +9688,7 @@
     <row r="76" spans="3:58" x14ac:dyDescent="0.15">
       <c r="E76" s="78"/>
       <c r="F76" s="43" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AJ76" s="73"/>
       <c r="AK76" s="73"/>
@@ -9813,7 +9854,7 @@
     </row>
     <row r="82" spans="4:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D82" s="26" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E82" s="29"/>
     </row>
@@ -9877,15 +9918,15 @@
     </row>
     <row r="89" spans="4:58" x14ac:dyDescent="0.15">
       <c r="E89" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="90" spans="4:58" x14ac:dyDescent="0.15">
       <c r="F90" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AK90" s="43" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AL90" s="78"/>
       <c r="AM90" s="78"/>
@@ -9902,8 +9943,8 @@
       <c r="AP91" s="78"/>
     </row>
     <row r="92" spans="4:58" x14ac:dyDescent="0.15">
-      <c r="G92" s="282" t="s">
-        <v>150</v>
+      <c r="G92" s="207" t="s">
+        <v>148</v>
       </c>
       <c r="H92" s="208"/>
       <c r="I92" s="208"/>
@@ -9914,21 +9955,21 @@
       <c r="N92" s="208"/>
       <c r="O92" s="208"/>
       <c r="P92" s="209"/>
-      <c r="Q92" s="283" t="s">
+      <c r="Q92" s="210" t="s">
+        <v>150</v>
+      </c>
+      <c r="R92" s="211"/>
+      <c r="S92" s="211"/>
+      <c r="T92" s="211"/>
+      <c r="U92" s="211"/>
+      <c r="V92" s="211"/>
+      <c r="W92" s="211"/>
+      <c r="X92" s="211"/>
+      <c r="Y92" s="211"/>
+      <c r="Z92" s="212"/>
+      <c r="AK92" s="78"/>
+      <c r="AL92" s="272" t="s">
         <v>152</v>
-      </c>
-      <c r="R92" s="284"/>
-      <c r="S92" s="284"/>
-      <c r="T92" s="284"/>
-      <c r="U92" s="284"/>
-      <c r="V92" s="284"/>
-      <c r="W92" s="284"/>
-      <c r="X92" s="284"/>
-      <c r="Y92" s="284"/>
-      <c r="Z92" s="285"/>
-      <c r="AK92" s="78"/>
-      <c r="AL92" s="207" t="s">
-        <v>154</v>
       </c>
       <c r="AM92" s="208"/>
       <c r="AN92" s="208"/>
@@ -9936,72 +9977,72 @@
       <c r="AP92" s="209"/>
     </row>
     <row r="93" spans="4:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G93" s="221" t="s">
-        <v>151</v>
-      </c>
-      <c r="H93" s="222"/>
-      <c r="I93" s="222"/>
-      <c r="J93" s="222"/>
-      <c r="K93" s="222"/>
-      <c r="L93" s="222"/>
-      <c r="M93" s="222"/>
-      <c r="N93" s="222"/>
-      <c r="O93" s="222"/>
-      <c r="P93" s="223"/>
-      <c r="Q93" s="227" t="s">
-        <v>131</v>
-      </c>
-      <c r="R93" s="228"/>
-      <c r="S93" s="228"/>
-      <c r="T93" s="228"/>
-      <c r="U93" s="228"/>
-      <c r="V93" s="228"/>
-      <c r="W93" s="228"/>
-      <c r="X93" s="228"/>
-      <c r="Y93" s="228"/>
-      <c r="Z93" s="229"/>
+      <c r="G93" s="276" t="s">
+        <v>149</v>
+      </c>
+      <c r="H93" s="277"/>
+      <c r="I93" s="277"/>
+      <c r="J93" s="277"/>
+      <c r="K93" s="277"/>
+      <c r="L93" s="277"/>
+      <c r="M93" s="277"/>
+      <c r="N93" s="277"/>
+      <c r="O93" s="277"/>
+      <c r="P93" s="278"/>
+      <c r="Q93" s="282" t="s">
+        <v>129</v>
+      </c>
+      <c r="R93" s="283"/>
+      <c r="S93" s="283"/>
+      <c r="T93" s="283"/>
+      <c r="U93" s="283"/>
+      <c r="V93" s="283"/>
+      <c r="W93" s="283"/>
+      <c r="X93" s="283"/>
+      <c r="Y93" s="283"/>
+      <c r="Z93" s="284"/>
       <c r="AG93" s="72"/>
       <c r="AH93" s="72"/>
       <c r="AK93" s="78"/>
-      <c r="AL93" s="128" t="s">
-        <v>166</v>
-      </c>
-      <c r="AM93" s="129" t="s">
-        <v>114</v>
-      </c>
-      <c r="AN93" s="129" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO93" s="129" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP93" s="130" t="s">
-        <v>114</v>
+      <c r="AL93" s="135" t="s">
+        <v>164</v>
+      </c>
+      <c r="AM93" s="136" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN93" s="136" t="s">
+        <v>112</v>
+      </c>
+      <c r="AO93" s="136" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP93" s="137" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="94" spans="4:58" x14ac:dyDescent="0.15">
-      <c r="G94" s="224"/>
-      <c r="H94" s="225"/>
-      <c r="I94" s="225"/>
-      <c r="J94" s="225"/>
-      <c r="K94" s="225"/>
-      <c r="L94" s="225"/>
-      <c r="M94" s="225"/>
-      <c r="N94" s="225"/>
-      <c r="O94" s="225"/>
-      <c r="P94" s="226"/>
-      <c r="Q94" s="227" t="s">
-        <v>134</v>
-      </c>
-      <c r="R94" s="228"/>
-      <c r="S94" s="228"/>
-      <c r="T94" s="228"/>
-      <c r="U94" s="228"/>
-      <c r="V94" s="228"/>
-      <c r="W94" s="228"/>
-      <c r="X94" s="228"/>
-      <c r="Y94" s="228"/>
-      <c r="Z94" s="229"/>
+      <c r="G94" s="279"/>
+      <c r="H94" s="280"/>
+      <c r="I94" s="280"/>
+      <c r="J94" s="280"/>
+      <c r="K94" s="280"/>
+      <c r="L94" s="280"/>
+      <c r="M94" s="280"/>
+      <c r="N94" s="280"/>
+      <c r="O94" s="280"/>
+      <c r="P94" s="281"/>
+      <c r="Q94" s="282" t="s">
+        <v>132</v>
+      </c>
+      <c r="R94" s="283"/>
+      <c r="S94" s="283"/>
+      <c r="T94" s="283"/>
+      <c r="U94" s="283"/>
+      <c r="V94" s="283"/>
+      <c r="W94" s="283"/>
+      <c r="X94" s="283"/>
+      <c r="Y94" s="283"/>
+      <c r="Z94" s="284"/>
       <c r="AC94" s="73"/>
       <c r="AD94" s="73"/>
       <c r="AE94" s="73"/>
@@ -10009,20 +10050,20 @@
       <c r="AG94" s="72"/>
       <c r="AH94" s="72"/>
       <c r="AK94" s="62"/>
-      <c r="AL94" s="128" t="s">
-        <v>128</v>
+      <c r="AL94" s="135" t="s">
+        <v>126</v>
       </c>
       <c r="AM94" s="203" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AN94" s="203" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AO94" s="203" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP94" s="210" t="s">
-        <v>114</v>
+        <v>112</v>
+      </c>
+      <c r="AP94" s="264" t="s">
+        <v>112</v>
       </c>
       <c r="AQ94" s="73"/>
       <c r="AR94" s="73"/>
@@ -10081,7 +10122,7 @@
     </row>
     <row r="96" spans="4:58" x14ac:dyDescent="0.15">
       <c r="G96" s="105" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H96" s="74"/>
       <c r="I96" s="74"/>
@@ -10128,7 +10169,7 @@
     </row>
     <row r="97" spans="4:58" x14ac:dyDescent="0.15">
       <c r="G97" s="105" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H97" s="74"/>
       <c r="I97" s="74"/>
@@ -10175,7 +10216,7 @@
     </row>
     <row r="98" spans="4:58" x14ac:dyDescent="0.15">
       <c r="G98" s="105" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H98" s="74"/>
       <c r="I98" s="74"/>
@@ -10301,7 +10342,7 @@
     <row r="102" spans="4:58" x14ac:dyDescent="0.15">
       <c r="E102" s="78"/>
       <c r="F102" s="43" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AJ102" s="73"/>
       <c r="AK102" s="73"/>
@@ -10357,7 +10398,7 @@
     <row r="104" spans="4:58" x14ac:dyDescent="0.15">
       <c r="E104" s="78"/>
       <c r="F104" s="43" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AJ104" s="73"/>
       <c r="AK104" s="73"/>
@@ -10412,7 +10453,7 @@
     <row r="106" spans="4:58" x14ac:dyDescent="0.15">
       <c r="E106" s="78"/>
       <c r="G106" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AJ106" s="73"/>
       <c r="AK106" s="73"/>
@@ -10441,7 +10482,7 @@
     <row r="107" spans="4:58" x14ac:dyDescent="0.15">
       <c r="E107" s="78"/>
       <c r="G107" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AJ107" s="73"/>
       <c r="AK107" s="73"/>
@@ -10523,7 +10564,7 @@
     </row>
     <row r="110" spans="4:58" x14ac:dyDescent="0.15">
       <c r="D110" s="26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E110" s="29"/>
       <c r="AJ110" s="73"/>
@@ -10579,7 +10620,7 @@
     </row>
     <row r="112" spans="4:58" x14ac:dyDescent="0.15">
       <c r="E112" s="26" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F112" s="29"/>
       <c r="AJ112" s="73"/>
@@ -10642,7 +10683,7 @@
     <row r="115" spans="5:58" x14ac:dyDescent="0.15">
       <c r="E115" s="29"/>
       <c r="F115" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="116" spans="5:58" x14ac:dyDescent="0.15">
@@ -10656,18 +10697,73 @@
     </row>
   </sheetData>
   <mergeCells count="103">
-    <mergeCell ref="G92:P92"/>
-    <mergeCell ref="Q92:Z92"/>
-    <mergeCell ref="Z63:AD63"/>
-    <mergeCell ref="AE63:AH63"/>
-    <mergeCell ref="E62:J62"/>
-    <mergeCell ref="E63:J63"/>
-    <mergeCell ref="K63:Q63"/>
-    <mergeCell ref="R63:Y63"/>
-    <mergeCell ref="E61:J61"/>
-    <mergeCell ref="AE61:AH61"/>
-    <mergeCell ref="AE62:AH62"/>
-    <mergeCell ref="Z62:AD62"/>
+    <mergeCell ref="AL92:AP92"/>
+    <mergeCell ref="AL94:AP94"/>
+    <mergeCell ref="AL93:AP93"/>
+    <mergeCell ref="R60:Y60"/>
+    <mergeCell ref="AE60:AH60"/>
+    <mergeCell ref="Z60:AD60"/>
+    <mergeCell ref="Z48:AB48"/>
+    <mergeCell ref="G93:P94"/>
+    <mergeCell ref="Q93:Z93"/>
+    <mergeCell ref="Q94:Z94"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="V53:AH54"/>
+    <mergeCell ref="T54:U54"/>
+    <mergeCell ref="V55:AH55"/>
+    <mergeCell ref="R61:Y61"/>
+    <mergeCell ref="Z61:AD61"/>
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="AL48:AP48"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="M48:T48"/>
+    <mergeCell ref="U48:Y48"/>
+    <mergeCell ref="K62:Q62"/>
+    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="AL42:AP42"/>
+    <mergeCell ref="U41:Y42"/>
+    <mergeCell ref="M41:T42"/>
+    <mergeCell ref="AD44:AG44"/>
+    <mergeCell ref="M45:T45"/>
+    <mergeCell ref="U45:Y45"/>
+    <mergeCell ref="AD47:AG47"/>
+    <mergeCell ref="AL47:AP47"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="I47:L47"/>
+    <mergeCell ref="M47:T47"/>
+    <mergeCell ref="U47:Y47"/>
+    <mergeCell ref="Z47:AB47"/>
+    <mergeCell ref="D46:AG46"/>
+    <mergeCell ref="AL45:AP45"/>
+    <mergeCell ref="AL44:AP44"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="I45:L45"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="I44:L44"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="Z45:AB45"/>
+    <mergeCell ref="AD45:AG45"/>
+    <mergeCell ref="D43:AG43"/>
+    <mergeCell ref="U44:Y44"/>
+    <mergeCell ref="Z44:AB44"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="AD40:AG42"/>
+    <mergeCell ref="M44:T44"/>
+    <mergeCell ref="I41:L42"/>
+    <mergeCell ref="E41:H42"/>
+    <mergeCell ref="E40:AC40"/>
+    <mergeCell ref="Z41:AB42"/>
+    <mergeCell ref="AC41:AC42"/>
+    <mergeCell ref="E34:M34"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="Q34:U34"/>
+    <mergeCell ref="V34:AC34"/>
+    <mergeCell ref="E35:M35"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="Q35:U35"/>
+    <mergeCell ref="V35:AC35"/>
     <mergeCell ref="T55:U55"/>
     <mergeCell ref="AD48:AG48"/>
     <mergeCell ref="R62:Y62"/>
@@ -10692,73 +10788,18 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="Z45:AB45"/>
-    <mergeCell ref="AD45:AG45"/>
-    <mergeCell ref="D43:AG43"/>
-    <mergeCell ref="U44:Y44"/>
-    <mergeCell ref="Z44:AB44"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="AD40:AG42"/>
-    <mergeCell ref="M44:T44"/>
-    <mergeCell ref="I41:L42"/>
-    <mergeCell ref="E41:H42"/>
-    <mergeCell ref="E40:AC40"/>
-    <mergeCell ref="Z41:AB42"/>
-    <mergeCell ref="AC41:AC42"/>
-    <mergeCell ref="E34:M34"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="Q34:U34"/>
-    <mergeCell ref="V34:AC34"/>
-    <mergeCell ref="E35:M35"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="Q35:U35"/>
-    <mergeCell ref="V35:AC35"/>
-    <mergeCell ref="AL42:AP42"/>
-    <mergeCell ref="U41:Y42"/>
-    <mergeCell ref="M41:T42"/>
-    <mergeCell ref="AD44:AG44"/>
-    <mergeCell ref="M45:T45"/>
-    <mergeCell ref="U45:Y45"/>
-    <mergeCell ref="AD47:AG47"/>
-    <mergeCell ref="AL47:AP47"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="I47:L47"/>
-    <mergeCell ref="M47:T47"/>
-    <mergeCell ref="U47:Y47"/>
-    <mergeCell ref="Z47:AB47"/>
-    <mergeCell ref="D46:AG46"/>
-    <mergeCell ref="AL45:AP45"/>
-    <mergeCell ref="AL44:AP44"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="I45:L45"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="I44:L44"/>
-    <mergeCell ref="AL92:AP92"/>
-    <mergeCell ref="AL94:AP94"/>
-    <mergeCell ref="AL93:AP93"/>
-    <mergeCell ref="R60:Y60"/>
-    <mergeCell ref="AE60:AH60"/>
-    <mergeCell ref="Z60:AD60"/>
-    <mergeCell ref="Z48:AB48"/>
-    <mergeCell ref="G93:P94"/>
-    <mergeCell ref="Q93:Z93"/>
-    <mergeCell ref="Q94:Z94"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="V53:AH54"/>
-    <mergeCell ref="T54:U54"/>
-    <mergeCell ref="V55:AH55"/>
-    <mergeCell ref="R61:Y61"/>
-    <mergeCell ref="Z61:AD61"/>
-    <mergeCell ref="E55:J55"/>
-    <mergeCell ref="AL48:AP48"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="M48:T48"/>
-    <mergeCell ref="U48:Y48"/>
-    <mergeCell ref="K62:Q62"/>
-    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="G92:P92"/>
+    <mergeCell ref="Q92:Z92"/>
+    <mergeCell ref="Z63:AD63"/>
+    <mergeCell ref="AE63:AH63"/>
+    <mergeCell ref="E62:J62"/>
+    <mergeCell ref="E63:J63"/>
+    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="R63:Y63"/>
+    <mergeCell ref="E61:J61"/>
+    <mergeCell ref="AE61:AH61"/>
+    <mergeCell ref="AE62:AH62"/>
+    <mergeCell ref="Z62:AD62"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="5">
